--- a/data/sample/ingregent_dummy_data.xlsx
+++ b/data/sample/ingregent_dummy_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136b3aa2be4278d7/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\sse2019-group5\data\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{FA9BF439-F872-444F-996F-46A1F8F91870}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{907E9183-9766-4FD4-A4FB-F6660D2A906F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9762151C-286D-4DDC-A753-7683FC49D63A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1455" windowWidth="20820" windowHeight="9825" xr2:uid="{4C39933F-810B-47A4-B181-70FC18FA6994}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{4C39933F-810B-47A4-B181-70FC18FA6994}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingregients" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="349">
   <si>
     <t>チキン南蛮弁当</t>
   </si>
@@ -513,12 +513,6 @@
     <t>protein</t>
   </si>
   <si>
-    <t>Lipid</t>
-  </si>
-  <si>
-    <t>Sugar</t>
-  </si>
-  <si>
     <t>Dietary fiber</t>
   </si>
   <si>
@@ -683,6 +677,411 @@
   <si>
     <t>SizeCodes</t>
   </si>
+  <si>
+    <t>から揚弁当(4コ入り) ライス普通盛</t>
+  </si>
+  <si>
+    <t>から揚弁当(4コ入り) ライス大盛</t>
+  </si>
+  <si>
+    <t>から揚弁当(4コ入り) ライス小盛</t>
+  </si>
+  <si>
+    <t>特から揚弁当(6コ入り) ライス普通盛</t>
+  </si>
+  <si>
+    <t>特から揚弁当(6コ入り) ライス大盛</t>
+  </si>
+  <si>
+    <t>特から揚弁当(6コ入り) ライス小盛</t>
+  </si>
+  <si>
+    <t>カルビ焼肉弁当 ライス普通盛</t>
+  </si>
+  <si>
+    <t>カルビ焼肉弁当 ライス大盛</t>
+  </si>
+  <si>
+    <t>カルビ焼肉弁当 ライス小盛</t>
+  </si>
+  <si>
+    <t>Wカルビ焼肉弁当(肉2倍) ライス普通盛</t>
+  </si>
+  <si>
+    <t>Wカルビ焼肉弁当(肉2倍) ライス大盛</t>
+  </si>
+  <si>
+    <t>Wカルビ焼肉弁当(肉2倍) ライス小盛</t>
+  </si>
+  <si>
+    <t>チキン南蛮弁当 ライス普通盛</t>
+  </si>
+  <si>
+    <t>チキン南蛮弁当 ライス大盛</t>
+  </si>
+  <si>
+    <t>チキン南蛮弁当 ライス小盛</t>
+  </si>
+  <si>
+    <t>しょうが焼き弁当 ライス普通盛</t>
+  </si>
+  <si>
+    <t>しょうが焼き弁当 ライス大盛</t>
+  </si>
+  <si>
+    <t>しょうが焼き弁当 ライス小盛</t>
+  </si>
+  <si>
+    <t>おろしチキン竜田弁当（香味醤油） ライス普通盛</t>
+  </si>
+  <si>
+    <t>おろしチキン竜田弁当（香味醤油） ライス大盛</t>
+  </si>
+  <si>
+    <t>おろしチキン竜田弁当（香味醤油） ライス小盛</t>
+  </si>
+  <si>
+    <t>おろしチキン竜田弁当（和風ぽん酢） ライス普通盛</t>
+  </si>
+  <si>
+    <t>おろしチキン竜田弁当（和風ぽん酢） ライス大盛</t>
+  </si>
+  <si>
+    <t>おろしチキン竜田弁当（和風ぽん酢） ライス小盛</t>
+  </si>
+  <si>
+    <t>しゃけ塩焼き弁当 ライス普通盛</t>
+  </si>
+  <si>
+    <t>しゃけ塩焼き弁当 ライス大盛</t>
+  </si>
+  <si>
+    <t>しゃけ塩焼き弁当 ライス小盛</t>
+  </si>
+  <si>
+    <t>さば塩焼き弁当 ライス普通盛</t>
+  </si>
+  <si>
+    <t>さば塩焼き弁当 ライス大盛</t>
+  </si>
+  <si>
+    <t>さば塩焼き弁当 ライス小盛</t>
+  </si>
+  <si>
+    <t>ロースとんかつ弁当 ライス普通盛</t>
+  </si>
+  <si>
+    <t>ロースとんかつ弁当 ライス大盛</t>
+  </si>
+  <si>
+    <t>ロースとんかつ弁当 ライス小盛</t>
+  </si>
+  <si>
+    <t>4種のこぼれチーズハンバーグステーキ弁当 ライス普通盛</t>
+  </si>
+  <si>
+    <t>4種のこぼれチーズハンバーグステーキ弁当 ライス大盛</t>
+  </si>
+  <si>
+    <t>4種のこぼれチーズハンバーグステーキ弁当 ライス小盛</t>
+  </si>
+  <si>
+    <t>デミグラスハンバーグステーキ弁当 ライス普通盛</t>
+  </si>
+  <si>
+    <t>デミグラスハンバーグステーキ弁当 ライス大盛</t>
+  </si>
+  <si>
+    <t>デミグラスハンバーグステーキ弁当 ライス小盛</t>
+  </si>
+  <si>
+    <t>和風おろしハンバーグステーキ弁当 ライス普通盛</t>
+  </si>
+  <si>
+    <t>和風おろしハンバーグステーキ弁当 ライス大盛</t>
+  </si>
+  <si>
+    <t>和風おろしハンバーグステーキ弁当 ライス小盛</t>
+  </si>
+  <si>
+    <t>ビビンバ(半熟たまご付) ライス普通盛</t>
+  </si>
+  <si>
+    <t>ビビンバ(半熟たまご付) ライス大盛</t>
+  </si>
+  <si>
+    <t>肉増しビビンバ(半熟たまご付き) ライス普通盛</t>
+  </si>
+  <si>
+    <t>肉増しビビンバ(半熟たまご付き) ライス大盛</t>
+  </si>
+  <si>
+    <t>ビビンバ(半熟たまごなし) ライス普通盛</t>
+  </si>
+  <si>
+    <t>ビビンバ(半熟たまごなし) ライス大盛</t>
+  </si>
+  <si>
+    <t>肉増しビビンバ(半熟たまごなし) ライス普通盛</t>
+  </si>
+  <si>
+    <t>肉増しビビンバ(半熟たまごなし) ライス大盛</t>
+  </si>
+  <si>
+    <t>さっぱりおろしかつめし ライス普通盛</t>
+  </si>
+  <si>
+    <t>さっぱりおろしかつめし ライス大盛</t>
+  </si>
+  <si>
+    <t>うな重 ライス普通盛</t>
+  </si>
+  <si>
+    <t>うな重 ライス大盛</t>
+  </si>
+  <si>
+    <t>Wうな重 ライス普通盛</t>
+  </si>
+  <si>
+    <t>Wうな重 ライス大盛</t>
+  </si>
+  <si>
+    <t>のり弁当 ライス普通盛</t>
+  </si>
+  <si>
+    <t>のり弁当 ライス大盛</t>
+  </si>
+  <si>
+    <t>特のりタル弁当 ライス普通盛</t>
+  </si>
+  <si>
+    <t>特のりタル弁当 ライス大盛</t>
+  </si>
+  <si>
+    <t>ロースかつ丼 ライス普通盛</t>
+  </si>
+  <si>
+    <t>ロースかつ丼 ライス大盛</t>
+  </si>
+  <si>
+    <t>肉野菜炒め弁当 ライス普通盛</t>
+  </si>
+  <si>
+    <t>肉野菜炒め弁当 ライス大盛</t>
+  </si>
+  <si>
+    <t>肉野菜炒め弁当 ライス小盛</t>
+  </si>
+  <si>
+    <t>ロースかつとじ弁当 ライス普通盛</t>
+  </si>
+  <si>
+    <t>ロースかつとじ弁当 ライス大盛</t>
+  </si>
+  <si>
+    <t>ロースかつとじ弁当 ライス小盛</t>
+  </si>
+  <si>
+    <t>おろしチキン竜田弁当(香味醤油) ライス普通盛</t>
+  </si>
+  <si>
+    <t>おろしチキン竜田弁当(香味醤油) ライス大盛</t>
+  </si>
+  <si>
+    <t>おろしチキン竜田弁当(香味醤油) ライス小盛</t>
+  </si>
+  <si>
+    <t>おろしチキン竜田弁当(和風ぽん酢) ライス普通盛</t>
+  </si>
+  <si>
+    <t>おろしチキン竜田弁当(和風ぽん酢) ライス大盛</t>
+  </si>
+  <si>
+    <t>おろしチキン竜田弁当(和風ぽん酢) ライス小盛</t>
+  </si>
+  <si>
+    <t>幕の内弁当 ライス普通盛</t>
+  </si>
+  <si>
+    <t>幕の内弁当 ライス大盛</t>
+  </si>
+  <si>
+    <t>特撰幕の内弁当 ライス普通盛</t>
+  </si>
+  <si>
+    <t>特撰幕の内弁当 ライス大盛</t>
+  </si>
+  <si>
+    <t>華・幕の内弁当 ライス普通盛</t>
+  </si>
+  <si>
+    <t>カットステーキ重 ライス普通盛</t>
+  </si>
+  <si>
+    <t>カットステーキ重 ライス大盛</t>
+  </si>
+  <si>
+    <t>Wカットステーキ重(肉2倍) ライス普通盛</t>
+  </si>
+  <si>
+    <t>Wカットステーキ重(肉2倍) ライス大盛</t>
+  </si>
+  <si>
+    <t>カットステーキコンボ ライス普通盛</t>
+  </si>
+  <si>
+    <t>カットステーキコンボ ライス大盛</t>
+  </si>
+  <si>
+    <t>親子丼 ライス普通盛</t>
+  </si>
+  <si>
+    <t>親子丼 ライス大盛</t>
+  </si>
+  <si>
+    <t>ビーフカレー ライス普通盛</t>
+  </si>
+  <si>
+    <t>ビーフカレー ライス大盛</t>
+  </si>
+  <si>
+    <t>から揚カレー ライス普通盛</t>
+  </si>
+  <si>
+    <t>から揚カレー ライス大盛</t>
+  </si>
+  <si>
+    <t>ロースカツカレー ライス普通盛</t>
+  </si>
+  <si>
+    <t>ロースカツカレー ライス大盛</t>
+  </si>
+  <si>
+    <t>ＢＩＧのり弁（コロッケ） ライス普通盛</t>
+  </si>
+  <si>
+    <t>ＢＩＧのり弁（コロッケ） ライス大盛</t>
+  </si>
+  <si>
+    <t>ＢＩＧのり弁（白身フライ） ライス普通盛</t>
+  </si>
+  <si>
+    <t>ＢＩＧのり弁（白身フライ） ライス大盛</t>
+  </si>
+  <si>
+    <t>ドラえもんランチ/ドラミちゃんランチ（おにぎり）　　　　　 ライス普通盛</t>
+  </si>
+  <si>
+    <t>ドラえもんランチ/ドラミちゃんランチ（カレー）　　　　　 ライス普通盛</t>
+  </si>
+  <si>
+    <t>から揚おかずのみ（4コ入り）</t>
+  </si>
+  <si>
+    <t>特から揚おかずのみ（6コ入り）</t>
+  </si>
+  <si>
+    <t>カルビ焼肉おかずのみ</t>
+  </si>
+  <si>
+    <t>Wカルビ焼肉おかずのみ</t>
+  </si>
+  <si>
+    <t>チキン南蛮おかずのみ</t>
+  </si>
+  <si>
+    <t>おろしチキン竜田おかずのみ（香味醤油）</t>
+  </si>
+  <si>
+    <t>おろしチキン竜田おかずのみ（和風ぽん酢）</t>
+  </si>
+  <si>
+    <t>ロースとんかつおかずのみ</t>
+  </si>
+  <si>
+    <t>惣菜:豆もやしナムル</t>
+  </si>
+  <si>
+    <t>惣菜：から揚</t>
+  </si>
+  <si>
+    <t>惣菜：ポテトサラダ</t>
+  </si>
+  <si>
+    <t>惣菜：コロッケ</t>
+  </si>
+  <si>
+    <t>惣菜：メンチカツ</t>
+  </si>
+  <si>
+    <t>惣菜：小松菜と油揚げの和え物</t>
+  </si>
+  <si>
+    <t>惣菜：キンピラゴボウ</t>
+  </si>
+  <si>
+    <t>惣菜：白身フライ</t>
+  </si>
+  <si>
+    <t>惣菜：エビフライ</t>
+  </si>
+  <si>
+    <t>惣菜：しゃけ塩焼き</t>
+  </si>
+  <si>
+    <t>惣菜：さばの塩焼</t>
+  </si>
+  <si>
+    <t>ドレッシング</t>
+  </si>
+  <si>
+    <t>display_name</t>
+  </si>
+  <si>
+    <t>lipid</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>dietary_fiber</t>
+  </si>
+  <si>
+    <t>rin</t>
+  </si>
+  <si>
+    <t>vitamin_a</t>
+  </si>
+  <si>
+    <t>vitamin_b1</t>
+  </si>
+  <si>
+    <t>vitamin_b2</t>
+  </si>
+  <si>
+    <t>vitamin_b6</t>
+  </si>
+  <si>
+    <t>vitamin_b12</t>
+  </si>
+  <si>
+    <t>niacin</t>
+  </si>
+  <si>
+    <t>pantothenic_acid</t>
+  </si>
+  <si>
+    <t>folic_acid</t>
+  </si>
+  <si>
+    <t>vitamin_c</t>
+  </si>
+  <si>
+    <t>vitamin_d</t>
+  </si>
+  <si>
+    <t>vitamin_e</t>
+  </si>
 </sst>
 </file>
 
@@ -770,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -805,6 +1204,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -831,9 +1233,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -853,14 +1252,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -894,6 +1286,25 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -912,15 +1323,6 @@
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -935,34 +1337,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEECA539-36A2-4036-9B44-9753253F3BEA}" name="org_table" displayName="org_table" ref="A4:M206" totalsRowShown="0" headerRowDxfId="14" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEECA539-36A2-4036-9B44-9753253F3BEA}" name="org_table" displayName="org_table" ref="A4:M206" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A4:M206" xr:uid="{7AFD621E-384D-415F-ACBB-7EAC419E7426}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{342F524A-17BA-4DEB-A0B6-6B50C50FE1AF}" name="No" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{D5193192-3F06-4709-B472-EE1AF3402AB4}" name="category" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{AB54DEFD-688E-433A-AD3A-49CEB3A62DD3}" name="商品名" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{206D3E5B-9B9E-44E7-B723-43F2B940BF90}" name="盛" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{58FB4932-E8F4-4524-93F6-3CF543491B83}" name="表示名" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{342F524A-17BA-4DEB-A0B6-6B50C50FE1AF}" name="No" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{D5193192-3F06-4709-B472-EE1AF3402AB4}" name="category" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{AB54DEFD-688E-433A-AD3A-49CEB3A62DD3}" name="商品名" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{206D3E5B-9B9E-44E7-B723-43F2B940BF90}" name="盛" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{58FB4932-E8F4-4524-93F6-3CF543491B83}" name="表示名" dataDxfId="11">
       <calculatedColumnFormula>org_table[[#This Row],[商品名]]&amp;" "&amp;org_table[[#This Row],[盛]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{E236B988-35D4-406A-A689-FF22012B010A}" name="size" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{CDC4BAA5-27CF-481A-9229-0A85444B9AA1}" name="熱量" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{490AF229-81E8-4C1E-A802-B7DC0F3C4DB6}" name="蛋白質" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{7FD898EE-BB5D-46BA-8A62-8040637D0742}" name="脂質" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{9CC69F05-B18D-4F27-BCEA-CBCC2E439E2F}" name="炭水化物" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{B33410ED-1852-4277-BC8F-038CC65D58EE}" name="食塩相当量" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{38BCFFC2-03E3-4958-B3FC-8F29B5168D22}" name="カリウム" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{C549D9D2-3F4C-48E0-8DE8-ACC8B04900BF}" name="リン" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{E236B988-35D4-406A-A689-FF22012B010A}" name="size" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{CDC4BAA5-27CF-481A-9229-0A85444B9AA1}" name="熱量" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{490AF229-81E8-4C1E-A802-B7DC0F3C4DB6}" name="蛋白質" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{7FD898EE-BB5D-46BA-8A62-8040637D0742}" name="脂質" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{9CC69F05-B18D-4F27-BCEA-CBCC2E439E2F}" name="炭水化物" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{B33410ED-1852-4277-BC8F-038CC65D58EE}" name="食塩相当量" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{38BCFFC2-03E3-4958-B3FC-8F29B5168D22}" name="カリウム" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{C549D9D2-3F4C-48E0-8DE8-ACC8B04900BF}" name="リン" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DDCC1899-F35C-44D2-9E8C-F3B5AA7A4C58}" name="dummy_data" displayName="dummy_data" ref="A1:S203" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DDCC1899-F35C-44D2-9E8C-F3B5AA7A4C58}" name="dummy_data" displayName="dummy_data" ref="A1:S203" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:S203" xr:uid="{8D7DABE3-33C7-484B-91FC-8B8F75C3EBCC}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{717DC965-E870-4311-B6E1-CDC0DB8D2F53}" name="No" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{717DC965-E870-4311-B6E1-CDC0DB8D2F53}" name="No" dataDxfId="1"/>
     <tableColumn id="19" xr3:uid="{A07D3E8A-684A-4303-AE63-5701E1F6A5E6}" name="Dietary fiber" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{6C072BF8-1A8C-4FDA-9A30-F54E9B786034}" name="sodium"/>
     <tableColumn id="3" xr3:uid="{B73B9A99-0AD5-4742-9ADB-9133A205A043}" name="potassium"/>
@@ -1305,13 +1707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFB3F58-96CB-46EF-B771-C9E1326FC884}">
-  <dimension ref="A1:AB204"/>
+  <dimension ref="A1:AC204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="T163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="AA171" sqref="AA171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1338,181 +1740,185 @@
     <col min="23" max="23" width="10.875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.125" bestFit="1" customWidth="1"/>
     <col min="25" max="28" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="44.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" t="s">
         <v>191</v>
       </c>
-      <c r="C1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:29" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Q2" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1520,9 +1926,8 @@
         <f>UPPER(LEFT(VLOOKUP(A3,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A3,"0000")</f>
         <v>PLU-0001</v>
       </c>
-      <c r="C3" t="str">
-        <f>VLOOKUP(A3,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスベジから揚弁当(4コ入り) ライス普通盛</v>
+      <c r="C3" t="s">
+        <v>214</v>
       </c>
       <c r="D3" t="str">
         <f>VLOOKUP(VLOOKUP(A3,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -1620,8 +2025,12 @@
         <f>VLOOKUP(A3,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC3" t="str">
+        <f>C3&amp;" "&amp;D3&amp;" "&amp;F3&amp;"kcal"</f>
+        <v>から揚弁当(4コ入り) ライス普通盛 野菜増 765kcal</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1629,9 +2038,8 @@
         <f>UPPER(LEFT(VLOOKUP(A4,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A4,"0000")</f>
         <v>PLU-0002</v>
       </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(A4,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスベジから揚弁当(4コ入り) ライス大盛</v>
+      <c r="C4" t="s">
+        <v>215</v>
       </c>
       <c r="D4" t="str">
         <f>VLOOKUP(VLOOKUP(A4,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -1729,8 +2137,12 @@
         <f>VLOOKUP(A4,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC4" t="str">
+        <f t="shared" ref="AC4:AC67" si="0">C4&amp;" "&amp;D4&amp;" "&amp;F4&amp;"kcal"</f>
+        <v>から揚弁当(4コ入り) ライス大盛 野菜増 916kcal</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1738,9 +2150,8 @@
         <f>UPPER(LEFT(VLOOKUP(A5,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A5,"0000")</f>
         <v>PLU-0003</v>
       </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(A5,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスベジから揚弁当(4コ入り) ライス小盛</v>
+      <c r="C5" t="s">
+        <v>216</v>
       </c>
       <c r="D5" t="str">
         <f>VLOOKUP(VLOOKUP(A5,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -1838,8 +2249,12 @@
         <f>VLOOKUP(A5,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC5" t="str">
+        <f t="shared" si="0"/>
+        <v>から揚弁当(4コ入り) ライス小盛 野菜増 659kcal</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1847,9 +2262,8 @@
         <f>UPPER(LEFT(VLOOKUP(A6,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A6,"0000")</f>
         <v>PLU-0004</v>
       </c>
-      <c r="C6" t="str">
-        <f>VLOOKUP(A6,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスベジ特から揚弁当(6コ入り) ライス普通盛</v>
+      <c r="C6" t="s">
+        <v>217</v>
       </c>
       <c r="D6" t="str">
         <f>VLOOKUP(VLOOKUP(A6,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -1947,8 +2361,12 @@
         <f>VLOOKUP(A6,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC6" t="str">
+        <f t="shared" si="0"/>
+        <v>特から揚弁当(6コ入り) ライス普通盛 野菜増 925kcal</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1956,9 +2374,8 @@
         <f>UPPER(LEFT(VLOOKUP(A7,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A7,"0000")</f>
         <v>PLU-0005</v>
       </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(A7,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスベジ特から揚弁当(6コ入り) ライス大盛</v>
+      <c r="C7" t="s">
+        <v>218</v>
       </c>
       <c r="D7" t="str">
         <f>VLOOKUP(VLOOKUP(A7,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -2056,8 +2473,12 @@
         <f>VLOOKUP(A7,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC7" t="str">
+        <f t="shared" si="0"/>
+        <v>特から揚弁当(6コ入り) ライス大盛 野菜増 1076kcal</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2065,9 +2486,8 @@
         <f>UPPER(LEFT(VLOOKUP(A8,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A8,"0000")</f>
         <v>PLU-0006</v>
       </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(A8,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスベジ特から揚弁当(6コ入り) ライス小盛</v>
+      <c r="C8" t="s">
+        <v>219</v>
       </c>
       <c r="D8" t="str">
         <f>VLOOKUP(VLOOKUP(A8,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -2165,8 +2585,12 @@
         <f>VLOOKUP(A8,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC8" t="str">
+        <f t="shared" si="0"/>
+        <v>特から揚弁当(6コ入り) ライス小盛 野菜増 819kcal</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2174,9 +2598,8 @@
         <f>UPPER(LEFT(VLOOKUP(A9,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A9,"0000")</f>
         <v>PLU-0007</v>
       </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(A9,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスベジカルビ焼肉弁当 ライス普通盛</v>
+      <c r="C9" t="s">
+        <v>220</v>
       </c>
       <c r="D9" t="str">
         <f>VLOOKUP(VLOOKUP(A9,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -2274,8 +2697,12 @@
         <f>VLOOKUP(A9,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC9" t="str">
+        <f t="shared" si="0"/>
+        <v>カルビ焼肉弁当 ライス普通盛 野菜増 884kcal</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2283,9 +2710,8 @@
         <f>UPPER(LEFT(VLOOKUP(A10,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A10,"0000")</f>
         <v>PLU-0008</v>
       </c>
-      <c r="C10" t="str">
-        <f>VLOOKUP(A10,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスベジカルビ焼肉弁当 ライス大盛</v>
+      <c r="C10" t="s">
+        <v>221</v>
       </c>
       <c r="D10" t="str">
         <f>VLOOKUP(VLOOKUP(A10,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -2383,8 +2809,12 @@
         <f>VLOOKUP(A10,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC10" t="str">
+        <f t="shared" si="0"/>
+        <v>カルビ焼肉弁当 ライス大盛 野菜増 1035kcal</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2392,9 +2822,8 @@
         <f>UPPER(LEFT(VLOOKUP(A11,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A11,"0000")</f>
         <v>PLU-0009</v>
       </c>
-      <c r="C11" t="str">
-        <f>VLOOKUP(A11,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスベジカルビ焼肉弁当 ライス小盛</v>
+      <c r="C11" t="s">
+        <v>222</v>
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP(VLOOKUP(A11,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -2492,8 +2921,12 @@
         <f>VLOOKUP(A11,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC11" t="str">
+        <f t="shared" si="0"/>
+        <v>カルビ焼肉弁当 ライス小盛 野菜増 778kcal</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2501,9 +2934,8 @@
         <f>UPPER(LEFT(VLOOKUP(A12,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A12,"0000")</f>
         <v>PLU-0010</v>
       </c>
-      <c r="C12" t="str">
-        <f>VLOOKUP(A12,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジWカルビ焼肉弁当(肉2倍) ライス普通盛</v>
+      <c r="C12" t="s">
+        <v>223</v>
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP(VLOOKUP(A12,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -2601,8 +3033,12 @@
         <f>VLOOKUP(A12,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC12" t="str">
+        <f t="shared" si="0"/>
+        <v>Wカルビ焼肉弁当(肉2倍) ライス普通盛 野菜増 1270kcal</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2610,9 +3046,8 @@
         <f>UPPER(LEFT(VLOOKUP(A13,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A13,"0000")</f>
         <v>PLU-0011</v>
       </c>
-      <c r="C13" t="str">
-        <f>VLOOKUP(A13,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジWカルビ焼肉弁当(肉2倍) ライス大盛</v>
+      <c r="C13" t="s">
+        <v>224</v>
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP(VLOOKUP(A13,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -2710,8 +3145,12 @@
         <f>VLOOKUP(A13,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC13" t="str">
+        <f t="shared" si="0"/>
+        <v>Wカルビ焼肉弁当(肉2倍) ライス大盛 野菜増 1421kcal</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2719,9 +3158,8 @@
         <f>UPPER(LEFT(VLOOKUP(A14,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A14,"0000")</f>
         <v>PLU-0012</v>
       </c>
-      <c r="C14" t="str">
-        <f>VLOOKUP(A14,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジWカルビ焼肉弁当(肉2倍) ライス小盛</v>
+      <c r="C14" t="s">
+        <v>225</v>
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP(VLOOKUP(A14,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -2819,8 +3257,12 @@
         <f>VLOOKUP(A14,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC14" t="str">
+        <f t="shared" si="0"/>
+        <v>Wカルビ焼肉弁当(肉2倍) ライス小盛 野菜増 1164kcal</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2828,9 +3270,8 @@
         <f>UPPER(LEFT(VLOOKUP(A15,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A15,"0000")</f>
         <v>PLU-0013</v>
       </c>
-      <c r="C15" t="str">
-        <f>VLOOKUP(A15,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジチキン南蛮弁当 ライス普通盛</v>
+      <c r="C15" t="s">
+        <v>226</v>
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP(VLOOKUP(A15,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -2928,8 +3369,12 @@
         <f>VLOOKUP(A15,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC15" t="str">
+        <f t="shared" si="0"/>
+        <v>チキン南蛮弁当 ライス普通盛 野菜増 867kcal</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2937,9 +3382,8 @@
         <f>UPPER(LEFT(VLOOKUP(A16,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A16,"0000")</f>
         <v>PLU-0014</v>
       </c>
-      <c r="C16" t="str">
-        <f>VLOOKUP(A16,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジチキン南蛮弁当 ライス大盛</v>
+      <c r="C16" t="s">
+        <v>227</v>
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP(VLOOKUP(A16,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -3037,8 +3481,12 @@
         <f>VLOOKUP(A16,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC16" t="str">
+        <f t="shared" si="0"/>
+        <v>チキン南蛮弁当 ライス大盛 野菜増 1018kcal</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3046,9 +3494,8 @@
         <f>UPPER(LEFT(VLOOKUP(A17,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A17,"0000")</f>
         <v>PLU-0015</v>
       </c>
-      <c r="C17" t="str">
-        <f>VLOOKUP(A17,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジチキン南蛮弁当 ライス小盛</v>
+      <c r="C17" t="s">
+        <v>228</v>
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP(VLOOKUP(A17,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -3146,8 +3593,12 @@
         <f>VLOOKUP(A17,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC17" t="str">
+        <f t="shared" si="0"/>
+        <v>チキン南蛮弁当 ライス小盛 野菜増 761kcal</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3155,9 +3606,8 @@
         <f>UPPER(LEFT(VLOOKUP(A18,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A18,"0000")</f>
         <v>PLU-0016</v>
       </c>
-      <c r="C18" t="str">
-        <f>VLOOKUP(A18,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジしょうが焼き弁当 ライス普通盛</v>
+      <c r="C18" t="s">
+        <v>229</v>
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP(VLOOKUP(A18,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -3255,8 +3705,12 @@
         <f>VLOOKUP(A18,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC18" t="str">
+        <f t="shared" si="0"/>
+        <v>しょうが焼き弁当 ライス普通盛 野菜増 903kcal</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3264,9 +3718,8 @@
         <f>UPPER(LEFT(VLOOKUP(A19,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A19,"0000")</f>
         <v>PLU-0017</v>
       </c>
-      <c r="C19" t="str">
-        <f>VLOOKUP(A19,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジしょうが焼き弁当 ライス大盛</v>
+      <c r="C19" t="s">
+        <v>230</v>
       </c>
       <c r="D19" t="str">
         <f>VLOOKUP(VLOOKUP(A19,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -3364,8 +3817,12 @@
         <f>VLOOKUP(A19,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC19" t="str">
+        <f t="shared" si="0"/>
+        <v>しょうが焼き弁当 ライス大盛 野菜増 1054kcal</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3373,9 +3830,8 @@
         <f>UPPER(LEFT(VLOOKUP(A20,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A20,"0000")</f>
         <v>PLU-0018</v>
       </c>
-      <c r="C20" t="str">
-        <f>VLOOKUP(A20,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジしょうが焼き弁当 ライス小盛</v>
+      <c r="C20" t="s">
+        <v>231</v>
       </c>
       <c r="D20" t="str">
         <f>VLOOKUP(VLOOKUP(A20,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -3473,8 +3929,12 @@
         <f>VLOOKUP(A20,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC20" t="str">
+        <f t="shared" si="0"/>
+        <v>しょうが焼き弁当 ライス小盛 野菜増 797kcal</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3482,9 +3942,8 @@
         <f>UPPER(LEFT(VLOOKUP(A21,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A21,"0000")</f>
         <v>PLU-0019</v>
       </c>
-      <c r="C21" t="str">
-        <f>VLOOKUP(A21,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジおろしチキン竜田弁当（香味醤油） ライス普通盛</v>
+      <c r="C21" t="s">
+        <v>232</v>
       </c>
       <c r="D21" t="str">
         <f>VLOOKUP(VLOOKUP(A21,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -3582,8 +4041,12 @@
         <f>VLOOKUP(A21,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC21" t="str">
+        <f t="shared" si="0"/>
+        <v>おろしチキン竜田弁当（香味醤油） ライス普通盛 野菜増 879kcal</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3591,9 +4054,8 @@
         <f>UPPER(LEFT(VLOOKUP(A22,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A22,"0000")</f>
         <v>PLU-0020</v>
       </c>
-      <c r="C22" t="str">
-        <f>VLOOKUP(A22,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジおろしチキン竜田弁当（香味醤油） ライス大盛</v>
+      <c r="C22" t="s">
+        <v>233</v>
       </c>
       <c r="D22" t="str">
         <f>VLOOKUP(VLOOKUP(A22,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -3691,8 +4153,12 @@
         <f>VLOOKUP(A22,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC22" t="str">
+        <f t="shared" si="0"/>
+        <v>おろしチキン竜田弁当（香味醤油） ライス大盛 野菜増 1030kcal</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3700,9 +4166,8 @@
         <f>UPPER(LEFT(VLOOKUP(A23,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A23,"0000")</f>
         <v>PLU-0021</v>
       </c>
-      <c r="C23" t="str">
-        <f>VLOOKUP(A23,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジおろしチキン竜田弁当（香味醤油） ライス小盛</v>
+      <c r="C23" t="s">
+        <v>234</v>
       </c>
       <c r="D23" t="str">
         <f>VLOOKUP(VLOOKUP(A23,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -3800,8 +4265,12 @@
         <f>VLOOKUP(A23,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC23" t="str">
+        <f t="shared" si="0"/>
+        <v>おろしチキン竜田弁当（香味醤油） ライス小盛 野菜増 773kcal</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3809,9 +4278,8 @@
         <f>UPPER(LEFT(VLOOKUP(A24,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A24,"0000")</f>
         <v>PLU-0022</v>
       </c>
-      <c r="C24" t="str">
-        <f>VLOOKUP(A24,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジおろしチキン竜田弁当（和風ぽん酢） ライス普通盛</v>
+      <c r="C24" t="s">
+        <v>235</v>
       </c>
       <c r="D24" t="str">
         <f>VLOOKUP(VLOOKUP(A24,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -3909,8 +4377,12 @@
         <f>VLOOKUP(A24,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC24" t="str">
+        <f t="shared" si="0"/>
+        <v>おろしチキン竜田弁当（和風ぽん酢） ライス普通盛 野菜増 866kcal</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3918,9 +4390,8 @@
         <f>UPPER(LEFT(VLOOKUP(A25,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A25,"0000")</f>
         <v>PLU-0023</v>
       </c>
-      <c r="C25" t="str">
-        <f>VLOOKUP(A25,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジおろしチキン竜田弁当（和風ぽん酢） ライス大盛</v>
+      <c r="C25" t="s">
+        <v>236</v>
       </c>
       <c r="D25" t="str">
         <f>VLOOKUP(VLOOKUP(A25,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -4018,8 +4489,12 @@
         <f>VLOOKUP(A25,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC25" t="str">
+        <f t="shared" si="0"/>
+        <v>おろしチキン竜田弁当（和風ぽん酢） ライス大盛 野菜増 1017kcal</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4027,9 +4502,8 @@
         <f>UPPER(LEFT(VLOOKUP(A26,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A26,"0000")</f>
         <v>PLU-0024</v>
       </c>
-      <c r="C26" t="str">
-        <f>VLOOKUP(A26,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジおろしチキン竜田弁当（和風ぽん酢） ライス小盛</v>
+      <c r="C26" t="s">
+        <v>237</v>
       </c>
       <c r="D26" t="str">
         <f>VLOOKUP(VLOOKUP(A26,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -4127,8 +4601,12 @@
         <f>VLOOKUP(A26,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC26" t="str">
+        <f t="shared" si="0"/>
+        <v>おろしチキン竜田弁当（和風ぽん酢） ライス小盛 野菜増 760kcal</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4136,9 +4614,8 @@
         <f>UPPER(LEFT(VLOOKUP(A27,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A27,"0000")</f>
         <v>PLU-0025</v>
       </c>
-      <c r="C27" t="str">
-        <f>VLOOKUP(A27,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジしゃけ塩焼き弁当 ライス普通盛</v>
+      <c r="C27" t="s">
+        <v>238</v>
       </c>
       <c r="D27" t="str">
         <f>VLOOKUP(VLOOKUP(A27,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -4236,8 +4713,12 @@
         <f>VLOOKUP(A27,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC27" t="str">
+        <f t="shared" si="0"/>
+        <v>しゃけ塩焼き弁当 ライス普通盛 野菜増 746kcal</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4245,9 +4726,8 @@
         <f>UPPER(LEFT(VLOOKUP(A28,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A28,"0000")</f>
         <v>PLU-0026</v>
       </c>
-      <c r="C28" t="str">
-        <f>VLOOKUP(A28,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジしゃけ塩焼き弁当 ライス大盛</v>
+      <c r="C28" t="s">
+        <v>239</v>
       </c>
       <c r="D28" t="str">
         <f>VLOOKUP(VLOOKUP(A28,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -4345,8 +4825,12 @@
         <f>VLOOKUP(A28,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC28" t="str">
+        <f t="shared" si="0"/>
+        <v>しゃけ塩焼き弁当 ライス大盛 野菜増 897kcal</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4354,9 +4838,8 @@
         <f>UPPER(LEFT(VLOOKUP(A29,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A29,"0000")</f>
         <v>PLU-0027</v>
       </c>
-      <c r="C29" t="str">
-        <f>VLOOKUP(A29,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジしゃけ塩焼き弁当 ライス小盛</v>
+      <c r="C29" t="s">
+        <v>240</v>
       </c>
       <c r="D29" t="str">
         <f>VLOOKUP(VLOOKUP(A29,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -4454,8 +4937,12 @@
         <f>VLOOKUP(A29,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC29" t="str">
+        <f t="shared" si="0"/>
+        <v>しゃけ塩焼き弁当 ライス小盛 野菜増 640kcal</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4463,9 +4950,8 @@
         <f>UPPER(LEFT(VLOOKUP(A30,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A30,"0000")</f>
         <v>PLU-0028</v>
       </c>
-      <c r="C30" t="str">
-        <f>VLOOKUP(A30,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジさば塩焼き弁当 ライス普通盛</v>
+      <c r="C30" t="s">
+        <v>241</v>
       </c>
       <c r="D30" t="str">
         <f>VLOOKUP(VLOOKUP(A30,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -4563,8 +5049,12 @@
         <f>VLOOKUP(A30,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC30" t="str">
+        <f t="shared" si="0"/>
+        <v>さば塩焼き弁当 ライス普通盛 野菜増 886kcal</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4572,9 +5062,8 @@
         <f>UPPER(LEFT(VLOOKUP(A31,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A31,"0000")</f>
         <v>PLU-0029</v>
       </c>
-      <c r="C31" t="str">
-        <f>VLOOKUP(A31,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジさば塩焼き弁当 ライス大盛</v>
+      <c r="C31" t="s">
+        <v>242</v>
       </c>
       <c r="D31" t="str">
         <f>VLOOKUP(VLOOKUP(A31,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -4672,8 +5161,12 @@
         <f>VLOOKUP(A31,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC31" t="str">
+        <f t="shared" si="0"/>
+        <v>さば塩焼き弁当 ライス大盛 野菜増 1037kcal</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4681,9 +5174,8 @@
         <f>UPPER(LEFT(VLOOKUP(A32,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A32,"0000")</f>
         <v>PLU-0030</v>
       </c>
-      <c r="C32" t="str">
-        <f>VLOOKUP(A32,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジさば塩焼き弁当 ライス小盛</v>
+      <c r="C32" t="s">
+        <v>243</v>
       </c>
       <c r="D32" t="str">
         <f>VLOOKUP(VLOOKUP(A32,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -4781,8 +5273,12 @@
         <f>VLOOKUP(A32,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC32" t="str">
+        <f t="shared" si="0"/>
+        <v>さば塩焼き弁当 ライス小盛 野菜増 780kcal</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4790,9 +5286,8 @@
         <f>UPPER(LEFT(VLOOKUP(A33,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A33,"0000")</f>
         <v>PLU-0031</v>
       </c>
-      <c r="C33" t="str">
-        <f>VLOOKUP(A33,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジロースとんかつ弁当 ライス普通盛</v>
+      <c r="C33" t="s">
+        <v>244</v>
       </c>
       <c r="D33" t="str">
         <f>VLOOKUP(VLOOKUP(A33,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -4890,8 +5385,12 @@
         <f>VLOOKUP(A33,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC33" t="str">
+        <f t="shared" si="0"/>
+        <v>ロースとんかつ弁当 ライス普通盛 野菜増 890kcal</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4899,9 +5398,8 @@
         <f>UPPER(LEFT(VLOOKUP(A34,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A34,"0000")</f>
         <v>PLU-0032</v>
       </c>
-      <c r="C34" t="str">
-        <f>VLOOKUP(A34,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジロースとんかつ弁当 ライス大盛</v>
+      <c r="C34" t="s">
+        <v>245</v>
       </c>
       <c r="D34" t="str">
         <f>VLOOKUP(VLOOKUP(A34,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -4999,8 +5497,12 @@
         <f>VLOOKUP(A34,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC34" t="str">
+        <f t="shared" si="0"/>
+        <v>ロースとんかつ弁当 ライス大盛 野菜増 1041kcal</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5008,9 +5510,8 @@
         <f>UPPER(LEFT(VLOOKUP(A35,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A35,"0000")</f>
         <v>PLU-0033</v>
       </c>
-      <c r="C35" t="str">
-        <f>VLOOKUP(A35,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジロースとんかつ弁当 ライス小盛</v>
+      <c r="C35" t="s">
+        <v>246</v>
       </c>
       <c r="D35" t="str">
         <f>VLOOKUP(VLOOKUP(A35,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -5108,8 +5609,12 @@
         <f>VLOOKUP(A35,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC35" t="str">
+        <f t="shared" si="0"/>
+        <v>ロースとんかつ弁当 ライス小盛 野菜増 784kcal</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5117,9 +5622,8 @@
         <f>UPPER(LEFT(VLOOKUP(A36,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A36,"0000")</f>
         <v>PLU-0034</v>
       </c>
-      <c r="C36" t="str">
-        <f>VLOOKUP(A36,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジ4種のこぼれチーズハンバーグステーキ弁当 ライス普通盛</v>
+      <c r="C36" t="s">
+        <v>247</v>
       </c>
       <c r="D36" t="str">
         <f>VLOOKUP(VLOOKUP(A36,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -5217,8 +5721,12 @@
         <f>VLOOKUP(A36,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC36" t="str">
+        <f t="shared" si="0"/>
+        <v>4種のこぼれチーズハンバーグステーキ弁当 ライス普通盛 野菜増 896kcal</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5226,9 +5734,8 @@
         <f>UPPER(LEFT(VLOOKUP(A37,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A37,"0000")</f>
         <v>PLU-0035</v>
       </c>
-      <c r="C37" t="str">
-        <f>VLOOKUP(A37,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジ4種のこぼれチーズハンバーグステーキ弁当 ライス大盛</v>
+      <c r="C37" t="s">
+        <v>248</v>
       </c>
       <c r="D37" t="str">
         <f>VLOOKUP(VLOOKUP(A37,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -5326,8 +5833,12 @@
         <f>VLOOKUP(A37,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC37" t="str">
+        <f t="shared" si="0"/>
+        <v>4種のこぼれチーズハンバーグステーキ弁当 ライス大盛 野菜増 1047kcal</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5335,9 +5846,8 @@
         <f>UPPER(LEFT(VLOOKUP(A38,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A38,"0000")</f>
         <v>PLU-0036</v>
       </c>
-      <c r="C38" t="str">
-        <f>VLOOKUP(A38,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジ4種のこぼれチーズハンバーグステーキ弁当 ライス小盛</v>
+      <c r="C38" t="s">
+        <v>249</v>
       </c>
       <c r="D38" t="str">
         <f>VLOOKUP(VLOOKUP(A38,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -5435,8 +5945,12 @@
         <f>VLOOKUP(A38,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC38" t="str">
+        <f t="shared" si="0"/>
+        <v>4種のこぼれチーズハンバーグステーキ弁当 ライス小盛 野菜増 790kcal</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5444,9 +5958,8 @@
         <f>UPPER(LEFT(VLOOKUP(A39,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A39,"0000")</f>
         <v>PLU-0037</v>
       </c>
-      <c r="C39" t="str">
-        <f>VLOOKUP(A39,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジデミグラスハンバーグステーキ弁当 ライス普通盛</v>
+      <c r="C39" t="s">
+        <v>250</v>
       </c>
       <c r="D39" t="str">
         <f>VLOOKUP(VLOOKUP(A39,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -5544,8 +6057,12 @@
         <f>VLOOKUP(A39,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC39" t="str">
+        <f t="shared" si="0"/>
+        <v>デミグラスハンバーグステーキ弁当 ライス普通盛 野菜増 779kcal</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5553,9 +6070,8 @@
         <f>UPPER(LEFT(VLOOKUP(A40,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A40,"0000")</f>
         <v>PLU-0038</v>
       </c>
-      <c r="C40" t="str">
-        <f>VLOOKUP(A40,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジデミグラスハンバーグステーキ弁当 ライス大盛</v>
+      <c r="C40" t="s">
+        <v>251</v>
       </c>
       <c r="D40" t="str">
         <f>VLOOKUP(VLOOKUP(A40,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -5653,8 +6169,12 @@
         <f>VLOOKUP(A40,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC40" t="str">
+        <f t="shared" si="0"/>
+        <v>デミグラスハンバーグステーキ弁当 ライス大盛 野菜増 930kcal</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5662,9 +6182,8 @@
         <f>UPPER(LEFT(VLOOKUP(A41,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A41,"0000")</f>
         <v>PLU-0039</v>
       </c>
-      <c r="C41" t="str">
-        <f>VLOOKUP(A41,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジデミグラスハンバーグステーキ弁当 ライス小盛</v>
+      <c r="C41" t="s">
+        <v>252</v>
       </c>
       <c r="D41" t="str">
         <f>VLOOKUP(VLOOKUP(A41,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -5762,8 +6281,12 @@
         <f>VLOOKUP(A41,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC41" t="str">
+        <f t="shared" si="0"/>
+        <v>デミグラスハンバーグステーキ弁当 ライス小盛 野菜増 673kcal</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5771,9 +6294,8 @@
         <f>UPPER(LEFT(VLOOKUP(A42,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A42,"0000")</f>
         <v>PLU-0040</v>
       </c>
-      <c r="C42" t="str">
-        <f>VLOOKUP(A42,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジ和風おろしハンバーグステーキ弁当 ライス普通盛</v>
+      <c r="C42" t="s">
+        <v>253</v>
       </c>
       <c r="D42" t="str">
         <f>VLOOKUP(VLOOKUP(A42,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -5871,8 +6393,12 @@
         <f>VLOOKUP(A42,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC42" t="str">
+        <f t="shared" si="0"/>
+        <v>和風おろしハンバーグステーキ弁当 ライス普通盛 野菜増 774kcal</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5880,9 +6406,8 @@
         <f>UPPER(LEFT(VLOOKUP(A43,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A43,"0000")</f>
         <v>PLU-0041</v>
       </c>
-      <c r="C43" t="str">
-        <f>VLOOKUP(A43,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジ和風おろしハンバーグステーキ弁当 ライス大盛</v>
+      <c r="C43" t="s">
+        <v>254</v>
       </c>
       <c r="D43" t="str">
         <f>VLOOKUP(VLOOKUP(A43,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -5980,8 +6505,12 @@
         <f>VLOOKUP(A43,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC43" t="str">
+        <f t="shared" si="0"/>
+        <v>和風おろしハンバーグステーキ弁当 ライス大盛 野菜増 925kcal</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5989,9 +6518,8 @@
         <f>UPPER(LEFT(VLOOKUP(A44,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A44,"0000")</f>
         <v>PLU-0042</v>
       </c>
-      <c r="C44" t="str">
-        <f>VLOOKUP(A44,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>プラスべジ和風おろしハンバーグステーキ弁当 ライス小盛</v>
+      <c r="C44" t="s">
+        <v>255</v>
       </c>
       <c r="D44" t="str">
         <f>VLOOKUP(VLOOKUP(A44,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -6089,8 +6617,12 @@
         <f>VLOOKUP(A44,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC44" t="str">
+        <f t="shared" si="0"/>
+        <v>和風おろしハンバーグステーキ弁当 ライス小盛 野菜増 668kcal</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>43</v>
       </c>
@@ -6098,9 +6630,8 @@
         <f>UPPER(LEFT(VLOOKUP(A45,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A45,"0000")</f>
         <v>PLU-0043</v>
       </c>
-      <c r="C45" t="str">
-        <f>VLOOKUP(A45,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>野菜が摂れるビビンバ(半熟たまご付) ライス普通盛</v>
+      <c r="C45" t="s">
+        <v>256</v>
       </c>
       <c r="D45" t="str">
         <f>VLOOKUP(VLOOKUP(A45,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -6198,8 +6729,12 @@
         <f>VLOOKUP(A45,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC45" t="str">
+        <f t="shared" si="0"/>
+        <v>ビビンバ(半熟たまご付) ライス普通盛 野菜増 782kcal</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>44</v>
       </c>
@@ -6207,9 +6742,8 @@
         <f>UPPER(LEFT(VLOOKUP(A46,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A46,"0000")</f>
         <v>PLU-0044</v>
       </c>
-      <c r="C46" t="str">
-        <f>VLOOKUP(A46,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>野菜が摂れるビビンバ(半熟たまご付) ライス大盛</v>
+      <c r="C46" t="s">
+        <v>257</v>
       </c>
       <c r="D46" t="str">
         <f>VLOOKUP(VLOOKUP(A46,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -6307,8 +6841,12 @@
         <f>VLOOKUP(A46,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC46" t="str">
+        <f t="shared" si="0"/>
+        <v>ビビンバ(半熟たまご付) ライス大盛 野菜増 933kcal</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>45</v>
       </c>
@@ -6316,9 +6854,8 @@
         <f>UPPER(LEFT(VLOOKUP(A47,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A47,"0000")</f>
         <v>PLU-0045</v>
       </c>
-      <c r="C47" t="str">
-        <f>VLOOKUP(A47,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>野菜が摂れる肉増しビビンバ(半熟たまご付き) ライス普通盛</v>
+      <c r="C47" t="s">
+        <v>258</v>
       </c>
       <c r="D47" t="str">
         <f>VLOOKUP(VLOOKUP(A47,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -6416,8 +6953,12 @@
         <f>VLOOKUP(A47,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC47" t="str">
+        <f t="shared" si="0"/>
+        <v>肉増しビビンバ(半熟たまご付き) ライス普通盛 野菜増 1039kcal</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>46</v>
       </c>
@@ -6425,9 +6966,8 @@
         <f>UPPER(LEFT(VLOOKUP(A48,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A48,"0000")</f>
         <v>PLU-0046</v>
       </c>
-      <c r="C48" t="str">
-        <f>VLOOKUP(A48,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>野菜が摂れる肉増しビビンバ(半熟たまご付き) ライス大盛</v>
+      <c r="C48" t="s">
+        <v>259</v>
       </c>
       <c r="D48" t="str">
         <f>VLOOKUP(VLOOKUP(A48,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -6525,8 +7065,12 @@
         <f>VLOOKUP(A48,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC48" t="str">
+        <f t="shared" si="0"/>
+        <v>肉増しビビンバ(半熟たまご付き) ライス大盛 野菜増 1190kcal</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6534,9 +7078,8 @@
         <f>UPPER(LEFT(VLOOKUP(A49,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A49,"0000")</f>
         <v>PLU-0047</v>
       </c>
-      <c r="C49" t="str">
-        <f>VLOOKUP(A49,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>野菜が摂れるビビンバ(半熟たまごなし) ライス普通盛</v>
+      <c r="C49" t="s">
+        <v>260</v>
       </c>
       <c r="D49" t="str">
         <f>VLOOKUP(VLOOKUP(A49,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -6634,8 +7177,12 @@
         <f>VLOOKUP(A49,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC49" t="str">
+        <f t="shared" si="0"/>
+        <v>ビビンバ(半熟たまごなし) ライス普通盛 野菜増 706kcal</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6643,9 +7190,8 @@
         <f>UPPER(LEFT(VLOOKUP(A50,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A50,"0000")</f>
         <v>PLU-0048</v>
       </c>
-      <c r="C50" t="str">
-        <f>VLOOKUP(A50,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>野菜が摂れるビビンバ(半熟たまごなし) ライス大盛</v>
+      <c r="C50" t="s">
+        <v>261</v>
       </c>
       <c r="D50" t="str">
         <f>VLOOKUP(VLOOKUP(A50,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -6743,8 +7289,12 @@
         <f>VLOOKUP(A50,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC50" t="str">
+        <f t="shared" si="0"/>
+        <v>ビビンバ(半熟たまごなし) ライス大盛 野菜増 857kcal</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6752,9 +7302,8 @@
         <f>UPPER(LEFT(VLOOKUP(A51,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A51,"0000")</f>
         <v>PLU-0049</v>
       </c>
-      <c r="C51" t="str">
-        <f>VLOOKUP(A51,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>野菜が摂れる肉増しビビンバ(半熟たまごなし) ライス普通盛</v>
+      <c r="C51" t="s">
+        <v>262</v>
       </c>
       <c r="D51" t="str">
         <f>VLOOKUP(VLOOKUP(A51,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -6852,8 +7401,12 @@
         <f>VLOOKUP(A51,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC51" t="str">
+        <f t="shared" si="0"/>
+        <v>肉増しビビンバ(半熟たまごなし) ライス普通盛 野菜増 963kcal</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6861,9 +7414,8 @@
         <f>UPPER(LEFT(VLOOKUP(A52,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A52,"0000")</f>
         <v>PLU-0050</v>
       </c>
-      <c r="C52" t="str">
-        <f>VLOOKUP(A52,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>野菜が摂れる肉増しビビンバ(半熟たまごなし) ライス大盛</v>
+      <c r="C52" t="s">
+        <v>263</v>
       </c>
       <c r="D52" t="str">
         <f>VLOOKUP(VLOOKUP(A52,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -6961,8 +7513,12 @@
         <f>VLOOKUP(A52,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC52" t="str">
+        <f t="shared" si="0"/>
+        <v>肉増しビビンバ(半熟たまごなし) ライス大盛 野菜増 1114kcal</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6970,9 +7526,8 @@
         <f>UPPER(LEFT(VLOOKUP(A53,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A53,"0000")</f>
         <v>DON-0051</v>
       </c>
-      <c r="C53" t="str">
-        <f>VLOOKUP(A53,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>さっぱりおろしかつめし ライス普通盛</v>
+      <c r="C53" t="s">
+        <v>264</v>
       </c>
       <c r="D53" t="str">
         <f>VLOOKUP(VLOOKUP(A53,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -7070,8 +7625,12 @@
         <f>VLOOKUP(A53,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC53" t="str">
+        <f t="shared" si="0"/>
+        <v>さっぱりおろしかつめし ライス普通盛 丼ぶり 840kcal</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>52</v>
       </c>
@@ -7079,9 +7638,8 @@
         <f>UPPER(LEFT(VLOOKUP(A54,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A54,"0000")</f>
         <v>DON-0052</v>
       </c>
-      <c r="C54" t="str">
-        <f>VLOOKUP(A54,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>さっぱりおろしかつめし ライス大盛</v>
+      <c r="C54" t="s">
+        <v>265</v>
       </c>
       <c r="D54" t="str">
         <f>VLOOKUP(VLOOKUP(A54,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -7179,8 +7737,12 @@
         <f>VLOOKUP(A54,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC54" t="str">
+        <f t="shared" si="0"/>
+        <v>さっぱりおろしかつめし ライス大盛 丼ぶり 991kcal</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>53</v>
       </c>
@@ -7188,9 +7750,8 @@
         <f>UPPER(LEFT(VLOOKUP(A55,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A55,"0000")</f>
         <v>DON-0053</v>
       </c>
-      <c r="C55" t="str">
-        <f>VLOOKUP(A55,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>うな重 ライス普通盛</v>
+      <c r="C55" t="s">
+        <v>266</v>
       </c>
       <c r="D55" t="str">
         <f>VLOOKUP(VLOOKUP(A55,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -7288,8 +7849,12 @@
         <f>VLOOKUP(A55,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC55" t="str">
+        <f t="shared" si="0"/>
+        <v>うな重 ライス普通盛 丼ぶり 711kcal</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>54</v>
       </c>
@@ -7297,9 +7862,8 @@
         <f>UPPER(LEFT(VLOOKUP(A56,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A56,"0000")</f>
         <v>DON-0054</v>
       </c>
-      <c r="C56" t="str">
-        <f>VLOOKUP(A56,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>うな重 ライス大盛</v>
+      <c r="C56" t="s">
+        <v>267</v>
       </c>
       <c r="D56" t="str">
         <f>VLOOKUP(VLOOKUP(A56,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -7397,8 +7961,12 @@
         <f>VLOOKUP(A56,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC56" t="str">
+        <f t="shared" si="0"/>
+        <v>うな重 ライス大盛 丼ぶり 862kcal</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>55</v>
       </c>
@@ -7406,9 +7974,8 @@
         <f>UPPER(LEFT(VLOOKUP(A57,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A57,"0000")</f>
         <v>DON-0055</v>
       </c>
-      <c r="C57" t="str">
-        <f>VLOOKUP(A57,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>Wうな重 ライス普通盛</v>
+      <c r="C57" t="s">
+        <v>268</v>
       </c>
       <c r="D57" t="str">
         <f>VLOOKUP(VLOOKUP(A57,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -7506,8 +8073,12 @@
         <f>VLOOKUP(A57,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC57" t="str">
+        <f t="shared" si="0"/>
+        <v>Wうな重 ライス普通盛 丼ぶり 975kcal</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>56</v>
       </c>
@@ -7515,9 +8086,8 @@
         <f>UPPER(LEFT(VLOOKUP(A58,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A58,"0000")</f>
         <v>DON-0056</v>
       </c>
-      <c r="C58" t="str">
-        <f>VLOOKUP(A58,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>Wうな重 ライス大盛</v>
+      <c r="C58" t="s">
+        <v>269</v>
       </c>
       <c r="D58" t="str">
         <f>VLOOKUP(VLOOKUP(A58,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -7615,8 +8185,12 @@
         <f>VLOOKUP(A58,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC58" t="str">
+        <f t="shared" si="0"/>
+        <v>Wうな重 ライス大盛 丼ぶり 1126kcal</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>57</v>
       </c>
@@ -7624,9 +8198,8 @@
         <f>UPPER(LEFT(VLOOKUP(A59,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A59,"0000")</f>
         <v>BEN-0057</v>
       </c>
-      <c r="C59" t="str">
-        <f>VLOOKUP(A59,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>のり弁当 ライス普通盛</v>
+      <c r="C59" t="s">
+        <v>270</v>
       </c>
       <c r="D59" t="str">
         <f>VLOOKUP(VLOOKUP(A59,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -7724,8 +8297,12 @@
         <f>VLOOKUP(A59,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC59" t="str">
+        <f t="shared" si="0"/>
+        <v>のり弁当 ライス普通盛 弁当 681kcal</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>58</v>
       </c>
@@ -7733,9 +8310,8 @@
         <f>UPPER(LEFT(VLOOKUP(A60,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A60,"0000")</f>
         <v>BEN-0058</v>
       </c>
-      <c r="C60" t="str">
-        <f>VLOOKUP(A60,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>のり弁当 ライス大盛</v>
+      <c r="C60" t="s">
+        <v>271</v>
       </c>
       <c r="D60" t="str">
         <f>VLOOKUP(VLOOKUP(A60,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -7833,8 +8409,12 @@
         <f>VLOOKUP(A60,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC60" t="str">
+        <f t="shared" si="0"/>
+        <v>のり弁当 ライス大盛 弁当 832kcal</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>59</v>
       </c>
@@ -7842,9 +8422,8 @@
         <f>UPPER(LEFT(VLOOKUP(A61,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A61,"0000")</f>
         <v>BEN-0059</v>
       </c>
-      <c r="C61" t="str">
-        <f>VLOOKUP(A61,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>特のりタル弁当 ライス普通盛</v>
+      <c r="C61" t="s">
+        <v>272</v>
       </c>
       <c r="D61" t="str">
         <f>VLOOKUP(VLOOKUP(A61,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -7942,8 +8521,12 @@
         <f>VLOOKUP(A61,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC61" t="str">
+        <f t="shared" si="0"/>
+        <v>特のりタル弁当 ライス普通盛 弁当 902kcal</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>60</v>
       </c>
@@ -7951,9 +8534,8 @@
         <f>UPPER(LEFT(VLOOKUP(A62,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A62,"0000")</f>
         <v>BEN-0060</v>
       </c>
-      <c r="C62" t="str">
-        <f>VLOOKUP(A62,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>特のりタル弁当 ライス大盛</v>
+      <c r="C62" t="s">
+        <v>273</v>
       </c>
       <c r="D62" t="str">
         <f>VLOOKUP(VLOOKUP(A62,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -8051,8 +8633,12 @@
         <f>VLOOKUP(A62,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC62" t="str">
+        <f t="shared" si="0"/>
+        <v>特のりタル弁当 ライス大盛 弁当 1053kcal</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>61</v>
       </c>
@@ -8060,9 +8646,8 @@
         <f>UPPER(LEFT(VLOOKUP(A63,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A63,"0000")</f>
         <v>BEN-0061</v>
       </c>
-      <c r="C63" t="str">
-        <f>VLOOKUP(A63,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>ロースかつ丼 ライス普通盛</v>
+      <c r="C63" t="s">
+        <v>274</v>
       </c>
       <c r="D63" t="str">
         <f>VLOOKUP(VLOOKUP(A63,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -8160,8 +8745,12 @@
         <f>VLOOKUP(A63,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC63" t="str">
+        <f t="shared" si="0"/>
+        <v>ロースかつ丼 ライス普通盛 弁当 885kcal</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>62</v>
       </c>
@@ -8169,9 +8758,8 @@
         <f>UPPER(LEFT(VLOOKUP(A64,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A64,"0000")</f>
         <v>BEN-0062</v>
       </c>
-      <c r="C64" t="str">
-        <f>VLOOKUP(A64,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>ロースかつ丼 ライス大盛</v>
+      <c r="C64" t="s">
+        <v>275</v>
       </c>
       <c r="D64" t="str">
         <f>VLOOKUP(VLOOKUP(A64,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -8269,8 +8857,12 @@
         <f>VLOOKUP(A64,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC64" t="str">
+        <f t="shared" si="0"/>
+        <v>ロースかつ丼 ライス大盛 弁当 1036kcal</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>63</v>
       </c>
@@ -8278,9 +8870,8 @@
         <f>UPPER(LEFT(VLOOKUP(A65,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A65,"0000")</f>
         <v>BEN-0063</v>
       </c>
-      <c r="C65" t="str">
-        <f>VLOOKUP(A65,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>から揚弁当(4コ入り) ライス普通盛</v>
+      <c r="C65" t="s">
+        <v>214</v>
       </c>
       <c r="D65" t="str">
         <f>VLOOKUP(VLOOKUP(A65,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -8378,8 +8969,12 @@
         <f>VLOOKUP(A65,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC65" t="str">
+        <f t="shared" si="0"/>
+        <v>から揚弁当(4コ入り) ライス普通盛 弁当 750kcal</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>64</v>
       </c>
@@ -8387,9 +8982,8 @@
         <f>UPPER(LEFT(VLOOKUP(A66,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A66,"0000")</f>
         <v>BEN-0064</v>
       </c>
-      <c r="C66" t="str">
-        <f>VLOOKUP(A66,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>から揚弁当(4コ入り) ライス大盛</v>
+      <c r="C66" t="s">
+        <v>215</v>
       </c>
       <c r="D66" t="str">
         <f>VLOOKUP(VLOOKUP(A66,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -8487,8 +9081,12 @@
         <f>VLOOKUP(A66,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC66" t="str">
+        <f t="shared" si="0"/>
+        <v>から揚弁当(4コ入り) ライス大盛 弁当 901kcal</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>65</v>
       </c>
@@ -8496,9 +9094,8 @@
         <f>UPPER(LEFT(VLOOKUP(A67,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A67,"0000")</f>
         <v>BEN-0065</v>
       </c>
-      <c r="C67" t="str">
-        <f>VLOOKUP(A67,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>から揚弁当(4コ入り) ライス小盛</v>
+      <c r="C67" t="s">
+        <v>216</v>
       </c>
       <c r="D67" t="str">
         <f>VLOOKUP(VLOOKUP(A67,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -8596,8 +9193,12 @@
         <f>VLOOKUP(A67,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC67" t="str">
+        <f t="shared" si="0"/>
+        <v>から揚弁当(4コ入り) ライス小盛 弁当 644kcal</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>66</v>
       </c>
@@ -8605,9 +9206,8 @@
         <f>UPPER(LEFT(VLOOKUP(A68,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A68,"0000")</f>
         <v>BEN-0066</v>
       </c>
-      <c r="C68" t="str">
-        <f>VLOOKUP(A68,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>特から揚弁当(6コ入り) ライス普通盛</v>
+      <c r="C68" t="s">
+        <v>217</v>
       </c>
       <c r="D68" t="str">
         <f>VLOOKUP(VLOOKUP(A68,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -8705,8 +9305,12 @@
         <f>VLOOKUP(A68,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC68" t="str">
+        <f t="shared" ref="AC68:AC131" si="1">C68&amp;" "&amp;D68&amp;" "&amp;F68&amp;"kcal"</f>
+        <v>特から揚弁当(6コ入り) ライス普通盛 弁当 910kcal</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>67</v>
       </c>
@@ -8714,9 +9318,8 @@
         <f>UPPER(LEFT(VLOOKUP(A69,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A69,"0000")</f>
         <v>BEN-0067</v>
       </c>
-      <c r="C69" t="str">
-        <f>VLOOKUP(A69,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>特から揚弁当(6コ入り) ライス大盛</v>
+      <c r="C69" t="s">
+        <v>218</v>
       </c>
       <c r="D69" t="str">
         <f>VLOOKUP(VLOOKUP(A69,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -8814,8 +9417,12 @@
         <f>VLOOKUP(A69,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC69" t="str">
+        <f t="shared" si="1"/>
+        <v>特から揚弁当(6コ入り) ライス大盛 弁当 1061kcal</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>68</v>
       </c>
@@ -8823,9 +9430,8 @@
         <f>UPPER(LEFT(VLOOKUP(A70,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A70,"0000")</f>
         <v>BEN-0068</v>
       </c>
-      <c r="C70" t="str">
-        <f>VLOOKUP(A70,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>特から揚弁当(6コ入り) ライス小盛</v>
+      <c r="C70" t="s">
+        <v>219</v>
       </c>
       <c r="D70" t="str">
         <f>VLOOKUP(VLOOKUP(A70,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -8923,8 +9529,12 @@
         <f>VLOOKUP(A70,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC70" t="str">
+        <f t="shared" si="1"/>
+        <v>特から揚弁当(6コ入り) ライス小盛 弁当 804kcal</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>69</v>
       </c>
@@ -8932,9 +9542,8 @@
         <f>UPPER(LEFT(VLOOKUP(A71,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A71,"0000")</f>
         <v>BEN-0069</v>
       </c>
-      <c r="C71" t="str">
-        <f>VLOOKUP(A71,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>チキン南蛮弁当 ライス普通盛</v>
+      <c r="C71" t="s">
+        <v>226</v>
       </c>
       <c r="D71" t="str">
         <f>VLOOKUP(VLOOKUP(A71,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -9032,8 +9641,12 @@
         <f>VLOOKUP(A71,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC71" t="str">
+        <f t="shared" si="1"/>
+        <v>チキン南蛮弁当 ライス普通盛 弁当 852kcal</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>70</v>
       </c>
@@ -9041,9 +9654,8 @@
         <f>UPPER(LEFT(VLOOKUP(A72,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A72,"0000")</f>
         <v>BEN-0070</v>
       </c>
-      <c r="C72" t="str">
-        <f>VLOOKUP(A72,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>チキン南蛮弁当 ライス大盛</v>
+      <c r="C72" t="s">
+        <v>227</v>
       </c>
       <c r="D72" t="str">
         <f>VLOOKUP(VLOOKUP(A72,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -9141,8 +9753,12 @@
         <f>VLOOKUP(A72,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC72" t="str">
+        <f t="shared" si="1"/>
+        <v>チキン南蛮弁当 ライス大盛 弁当 1003kcal</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>71</v>
       </c>
@@ -9150,9 +9766,8 @@
         <f>UPPER(LEFT(VLOOKUP(A73,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A73,"0000")</f>
         <v>BEN-0071</v>
       </c>
-      <c r="C73" t="str">
-        <f>VLOOKUP(A73,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>チキン南蛮弁当 ライス小盛</v>
+      <c r="C73" t="s">
+        <v>228</v>
       </c>
       <c r="D73" t="str">
         <f>VLOOKUP(VLOOKUP(A73,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -9250,8 +9865,12 @@
         <f>VLOOKUP(A73,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC73" t="str">
+        <f t="shared" si="1"/>
+        <v>チキン南蛮弁当 ライス小盛 弁当 746kcal</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>72</v>
       </c>
@@ -9259,9 +9878,8 @@
         <f>UPPER(LEFT(VLOOKUP(A74,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A74,"0000")</f>
         <v>BEN-0072</v>
       </c>
-      <c r="C74" t="str">
-        <f>VLOOKUP(A74,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>肉野菜炒め弁当 ライス普通盛</v>
+      <c r="C74" t="s">
+        <v>276</v>
       </c>
       <c r="D74" t="str">
         <f>VLOOKUP(VLOOKUP(A74,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -9359,8 +9977,12 @@
         <f>VLOOKUP(A74,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC74" t="str">
+        <f t="shared" si="1"/>
+        <v>肉野菜炒め弁当 ライス普通盛 弁当 743kcal</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>73</v>
       </c>
@@ -9368,9 +9990,8 @@
         <f>UPPER(LEFT(VLOOKUP(A75,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A75,"0000")</f>
         <v>BEN-0073</v>
       </c>
-      <c r="C75" t="str">
-        <f>VLOOKUP(A75,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>肉野菜炒め弁当 ライス大盛</v>
+      <c r="C75" t="s">
+        <v>277</v>
       </c>
       <c r="D75" t="str">
         <f>VLOOKUP(VLOOKUP(A75,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -9468,8 +10089,12 @@
         <f>VLOOKUP(A75,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC75" t="str">
+        <f t="shared" si="1"/>
+        <v>肉野菜炒め弁当 ライス大盛 弁当 894kcal</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>74</v>
       </c>
@@ -9477,9 +10102,8 @@
         <f>UPPER(LEFT(VLOOKUP(A76,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A76,"0000")</f>
         <v>BEN-0074</v>
       </c>
-      <c r="C76" t="str">
-        <f>VLOOKUP(A76,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>肉野菜炒め弁当 ライス小盛</v>
+      <c r="C76" t="s">
+        <v>278</v>
       </c>
       <c r="D76" t="str">
         <f>VLOOKUP(VLOOKUP(A76,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -9577,8 +10201,12 @@
         <f>VLOOKUP(A76,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC76" t="str">
+        <f t="shared" si="1"/>
+        <v>肉野菜炒め弁当 ライス小盛 弁当 637kcal</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>75</v>
       </c>
@@ -9586,9 +10214,8 @@
         <f>UPPER(LEFT(VLOOKUP(A77,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A77,"0000")</f>
         <v>BEN-0075</v>
       </c>
-      <c r="C77" t="str">
-        <f>VLOOKUP(A77,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>しょうが焼き弁当 ライス普通盛</v>
+      <c r="C77" t="s">
+        <v>229</v>
       </c>
       <c r="D77" t="str">
         <f>VLOOKUP(VLOOKUP(A77,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -9686,8 +10313,12 @@
         <f>VLOOKUP(A77,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC77" t="str">
+        <f t="shared" si="1"/>
+        <v>しょうが焼き弁当 ライス普通盛 弁当 888kcal</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>76</v>
       </c>
@@ -9695,9 +10326,8 @@
         <f>UPPER(LEFT(VLOOKUP(A78,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A78,"0000")</f>
         <v>BEN-0076</v>
       </c>
-      <c r="C78" t="str">
-        <f>VLOOKUP(A78,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>しょうが焼き弁当 ライス大盛</v>
+      <c r="C78" t="s">
+        <v>230</v>
       </c>
       <c r="D78" t="str">
         <f>VLOOKUP(VLOOKUP(A78,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -9795,8 +10425,12 @@
         <f>VLOOKUP(A78,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC78" t="str">
+        <f t="shared" si="1"/>
+        <v>しょうが焼き弁当 ライス大盛 弁当 1039kcal</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>77</v>
       </c>
@@ -9804,9 +10438,8 @@
         <f>UPPER(LEFT(VLOOKUP(A79,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A79,"0000")</f>
         <v>BEN-0077</v>
       </c>
-      <c r="C79" t="str">
-        <f>VLOOKUP(A79,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>しょうが焼き弁当 ライス小盛</v>
+      <c r="C79" t="s">
+        <v>231</v>
       </c>
       <c r="D79" t="str">
         <f>VLOOKUP(VLOOKUP(A79,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -9904,8 +10537,12 @@
         <f>VLOOKUP(A79,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC79" t="str">
+        <f t="shared" si="1"/>
+        <v>しょうが焼き弁当 ライス小盛 弁当 782kcal</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>78</v>
       </c>
@@ -9913,9 +10550,8 @@
         <f>UPPER(LEFT(VLOOKUP(A80,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A80,"0000")</f>
         <v>BEN-0078</v>
       </c>
-      <c r="C80" t="str">
-        <f>VLOOKUP(A80,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>デミグラスハンバーグステーキ弁当 ライス普通盛</v>
+      <c r="C80" t="s">
+        <v>250</v>
       </c>
       <c r="D80" t="str">
         <f>VLOOKUP(VLOOKUP(A80,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -10013,8 +10649,12 @@
         <f>VLOOKUP(A80,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC80" t="str">
+        <f t="shared" si="1"/>
+        <v>デミグラスハンバーグステーキ弁当 ライス普通盛 弁当 764kcal</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>79</v>
       </c>
@@ -10022,9 +10662,8 @@
         <f>UPPER(LEFT(VLOOKUP(A81,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A81,"0000")</f>
         <v>BEN-0079</v>
       </c>
-      <c r="C81" t="str">
-        <f>VLOOKUP(A81,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>デミグラスハンバーグステーキ弁当 ライス大盛</v>
+      <c r="C81" t="s">
+        <v>251</v>
       </c>
       <c r="D81" t="str">
         <f>VLOOKUP(VLOOKUP(A81,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -10122,8 +10761,12 @@
         <f>VLOOKUP(A81,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC81" t="str">
+        <f t="shared" si="1"/>
+        <v>デミグラスハンバーグステーキ弁当 ライス大盛 弁当 915kcal</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>80</v>
       </c>
@@ -10131,9 +10774,8 @@
         <f>UPPER(LEFT(VLOOKUP(A82,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A82,"0000")</f>
         <v>BEN-0080</v>
       </c>
-      <c r="C82" t="str">
-        <f>VLOOKUP(A82,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>デミグラスハンバーグステーキ弁当 ライス小盛</v>
+      <c r="C82" t="s">
+        <v>252</v>
       </c>
       <c r="D82" t="str">
         <f>VLOOKUP(VLOOKUP(A82,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -10231,8 +10873,12 @@
         <f>VLOOKUP(A82,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC82" t="str">
+        <f t="shared" si="1"/>
+        <v>デミグラスハンバーグステーキ弁当 ライス小盛 弁当 658kcal</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>81</v>
       </c>
@@ -10240,9 +10886,8 @@
         <f>UPPER(LEFT(VLOOKUP(A83,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A83,"0000")</f>
         <v>BEN-0081</v>
       </c>
-      <c r="C83" t="str">
-        <f>VLOOKUP(A83,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>4種のこぼれチーズハンバーグステーキ弁当 ライス普通盛</v>
+      <c r="C83" t="s">
+        <v>247</v>
       </c>
       <c r="D83" t="str">
         <f>VLOOKUP(VLOOKUP(A83,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -10340,8 +10985,12 @@
         <f>VLOOKUP(A83,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC83" t="str">
+        <f t="shared" si="1"/>
+        <v>4種のこぼれチーズハンバーグステーキ弁当 ライス普通盛 弁当 881kcal</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>82</v>
       </c>
@@ -10349,9 +10998,8 @@
         <f>UPPER(LEFT(VLOOKUP(A84,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A84,"0000")</f>
         <v>BEN-0082</v>
       </c>
-      <c r="C84" t="str">
-        <f>VLOOKUP(A84,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>4種のこぼれチーズハンバーグステーキ弁当 ライス大盛</v>
+      <c r="C84" t="s">
+        <v>248</v>
       </c>
       <c r="D84" t="str">
         <f>VLOOKUP(VLOOKUP(A84,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -10449,8 +11097,12 @@
         <f>VLOOKUP(A84,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC84" t="str">
+        <f t="shared" si="1"/>
+        <v>4種のこぼれチーズハンバーグステーキ弁当 ライス大盛 弁当 1032kcal</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>83</v>
       </c>
@@ -10458,9 +11110,8 @@
         <f>UPPER(LEFT(VLOOKUP(A85,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A85,"0000")</f>
         <v>BEN-0083</v>
       </c>
-      <c r="C85" t="str">
-        <f>VLOOKUP(A85,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>4種のこぼれチーズハンバーグステーキ弁当 ライス小盛</v>
+      <c r="C85" t="s">
+        <v>249</v>
       </c>
       <c r="D85" t="str">
         <f>VLOOKUP(VLOOKUP(A85,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -10558,8 +11209,12 @@
         <f>VLOOKUP(A85,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC85" t="str">
+        <f t="shared" si="1"/>
+        <v>4種のこぼれチーズハンバーグステーキ弁当 ライス小盛 弁当 775kcal</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>84</v>
       </c>
@@ -10567,9 +11222,8 @@
         <f>UPPER(LEFT(VLOOKUP(A86,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A86,"0000")</f>
         <v>BEN-0084</v>
       </c>
-      <c r="C86" t="str">
-        <f>VLOOKUP(A86,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>和風おろしハンバーグステーキ弁当 ライス普通盛</v>
+      <c r="C86" t="s">
+        <v>253</v>
       </c>
       <c r="D86" t="str">
         <f>VLOOKUP(VLOOKUP(A86,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -10667,8 +11321,12 @@
         <f>VLOOKUP(A86,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC86" t="str">
+        <f t="shared" si="1"/>
+        <v>和風おろしハンバーグステーキ弁当 ライス普通盛 弁当 759kcal</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>85</v>
       </c>
@@ -10676,9 +11334,8 @@
         <f>UPPER(LEFT(VLOOKUP(A87,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A87,"0000")</f>
         <v>BEN-0085</v>
       </c>
-      <c r="C87" t="str">
-        <f>VLOOKUP(A87,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>和風おろしハンバーグステーキ弁当 ライス大盛</v>
+      <c r="C87" t="s">
+        <v>254</v>
       </c>
       <c r="D87" t="str">
         <f>VLOOKUP(VLOOKUP(A87,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -10776,8 +11433,12 @@
         <f>VLOOKUP(A87,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC87" t="str">
+        <f t="shared" si="1"/>
+        <v>和風おろしハンバーグステーキ弁当 ライス大盛 弁当 910kcal</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>86</v>
       </c>
@@ -10785,9 +11446,8 @@
         <f>UPPER(LEFT(VLOOKUP(A88,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A88,"0000")</f>
         <v>BEN-0086</v>
       </c>
-      <c r="C88" t="str">
-        <f>VLOOKUP(A88,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>和風おろしハンバーグステーキ弁当 ライス小盛</v>
+      <c r="C88" t="s">
+        <v>255</v>
       </c>
       <c r="D88" t="str">
         <f>VLOOKUP(VLOOKUP(A88,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -10885,8 +11545,12 @@
         <f>VLOOKUP(A88,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC88" t="str">
+        <f t="shared" si="1"/>
+        <v>和風おろしハンバーグステーキ弁当 ライス小盛 弁当 653kcal</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>87</v>
       </c>
@@ -10894,9 +11558,8 @@
         <f>UPPER(LEFT(VLOOKUP(A89,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A89,"0000")</f>
         <v>BEN-0087</v>
       </c>
-      <c r="C89" t="str">
-        <f>VLOOKUP(A89,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>ロースとんかつ弁当 ライス普通盛</v>
+      <c r="C89" t="s">
+        <v>244</v>
       </c>
       <c r="D89" t="str">
         <f>VLOOKUP(VLOOKUP(A89,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -10994,8 +11657,12 @@
         <f>VLOOKUP(A89,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC89" t="str">
+        <f t="shared" si="1"/>
+        <v>ロースとんかつ弁当 ライス普通盛 弁当 875kcal</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>88</v>
       </c>
@@ -11003,9 +11670,8 @@
         <f>UPPER(LEFT(VLOOKUP(A90,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A90,"0000")</f>
         <v>BEN-0088</v>
       </c>
-      <c r="C90" t="str">
-        <f>VLOOKUP(A90,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>ロースとんかつ弁当 ライス大盛</v>
+      <c r="C90" t="s">
+        <v>245</v>
       </c>
       <c r="D90" t="str">
         <f>VLOOKUP(VLOOKUP(A90,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -11103,8 +11769,12 @@
         <f>VLOOKUP(A90,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC90" t="str">
+        <f t="shared" si="1"/>
+        <v>ロースとんかつ弁当 ライス大盛 弁当 1026kcal</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>89</v>
       </c>
@@ -11112,9 +11782,8 @@
         <f>UPPER(LEFT(VLOOKUP(A91,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A91,"0000")</f>
         <v>BEN-0089</v>
       </c>
-      <c r="C91" t="str">
-        <f>VLOOKUP(A91,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>ロースとんかつ弁当 ライス小盛</v>
+      <c r="C91" t="s">
+        <v>246</v>
       </c>
       <c r="D91" t="str">
         <f>VLOOKUP(VLOOKUP(A91,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -11212,8 +11881,12 @@
         <f>VLOOKUP(A91,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC91" t="str">
+        <f t="shared" si="1"/>
+        <v>ロースとんかつ弁当 ライス小盛 弁当 769kcal</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>90</v>
       </c>
@@ -11221,9 +11894,8 @@
         <f>UPPER(LEFT(VLOOKUP(A92,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A92,"0000")</f>
         <v>BEN-0090</v>
       </c>
-      <c r="C92" t="str">
-        <f>VLOOKUP(A92,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>ロースかつとじ弁当 ライス普通盛</v>
+      <c r="C92" t="s">
+        <v>279</v>
       </c>
       <c r="D92" t="str">
         <f>VLOOKUP(VLOOKUP(A92,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -11321,8 +11993,12 @@
         <f>VLOOKUP(A92,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC92" t="str">
+        <f t="shared" si="1"/>
+        <v>ロースかつとじ弁当 ライス普通盛 弁当 882kcal</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>91</v>
       </c>
@@ -11330,9 +12006,8 @@
         <f>UPPER(LEFT(VLOOKUP(A93,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A93,"0000")</f>
         <v>BEN-0091</v>
       </c>
-      <c r="C93" t="str">
-        <f>VLOOKUP(A93,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>ロースかつとじ弁当 ライス大盛</v>
+      <c r="C93" t="s">
+        <v>280</v>
       </c>
       <c r="D93" t="str">
         <f>VLOOKUP(VLOOKUP(A93,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -11430,8 +12105,12 @@
         <f>VLOOKUP(A93,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC93" t="str">
+        <f t="shared" si="1"/>
+        <v>ロースかつとじ弁当 ライス大盛 弁当 1033kcal</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>92</v>
       </c>
@@ -11439,9 +12118,8 @@
         <f>UPPER(LEFT(VLOOKUP(A94,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A94,"0000")</f>
         <v>BEN-0092</v>
       </c>
-      <c r="C94" t="str">
-        <f>VLOOKUP(A94,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>ロースかつとじ弁当 ライス小盛</v>
+      <c r="C94" t="s">
+        <v>281</v>
       </c>
       <c r="D94" t="str">
         <f>VLOOKUP(VLOOKUP(A94,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -11539,8 +12217,12 @@
         <f>VLOOKUP(A94,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC94" t="str">
+        <f t="shared" si="1"/>
+        <v>ロースかつとじ弁当 ライス小盛 弁当 776kcal</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>93</v>
       </c>
@@ -11548,9 +12230,8 @@
         <f>UPPER(LEFT(VLOOKUP(A95,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A95,"0000")</f>
         <v>BEN-0093</v>
       </c>
-      <c r="C95" t="str">
-        <f>VLOOKUP(A95,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>カルビ焼肉弁当 ライス普通盛</v>
+      <c r="C95" t="s">
+        <v>220</v>
       </c>
       <c r="D95" t="str">
         <f>VLOOKUP(VLOOKUP(A95,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -11648,8 +12329,12 @@
         <f>VLOOKUP(A95,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC95" t="str">
+        <f t="shared" si="1"/>
+        <v>カルビ焼肉弁当 ライス普通盛 弁当 869kcal</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>94</v>
       </c>
@@ -11657,9 +12342,8 @@
         <f>UPPER(LEFT(VLOOKUP(A96,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A96,"0000")</f>
         <v>BEN-0094</v>
       </c>
-      <c r="C96" t="str">
-        <f>VLOOKUP(A96,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>カルビ焼肉弁当 ライス大盛</v>
+      <c r="C96" t="s">
+        <v>221</v>
       </c>
       <c r="D96" t="str">
         <f>VLOOKUP(VLOOKUP(A96,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -11757,8 +12441,12 @@
         <f>VLOOKUP(A96,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC96" t="str">
+        <f t="shared" si="1"/>
+        <v>カルビ焼肉弁当 ライス大盛 弁当 1020kcal</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>95</v>
       </c>
@@ -11766,9 +12454,8 @@
         <f>UPPER(LEFT(VLOOKUP(A97,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A97,"0000")</f>
         <v>BEN-0095</v>
       </c>
-      <c r="C97" t="str">
-        <f>VLOOKUP(A97,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>カルビ焼肉弁当 ライス小盛</v>
+      <c r="C97" t="s">
+        <v>222</v>
       </c>
       <c r="D97" t="str">
         <f>VLOOKUP(VLOOKUP(A97,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -11866,8 +12553,12 @@
         <f>VLOOKUP(A97,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC97" t="str">
+        <f t="shared" si="1"/>
+        <v>カルビ焼肉弁当 ライス小盛 弁当 763kcal</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>96</v>
       </c>
@@ -11875,9 +12566,8 @@
         <f>UPPER(LEFT(VLOOKUP(A98,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A98,"0000")</f>
         <v>BEN-0096</v>
       </c>
-      <c r="C98" t="str">
-        <f>VLOOKUP(A98,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>Wカルビ焼肉弁当(肉2倍) ライス普通盛</v>
+      <c r="C98" t="s">
+        <v>223</v>
       </c>
       <c r="D98" t="str">
         <f>VLOOKUP(VLOOKUP(A98,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -11975,8 +12665,12 @@
         <f>VLOOKUP(A98,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC98" t="str">
+        <f t="shared" si="1"/>
+        <v>Wカルビ焼肉弁当(肉2倍) ライス普通盛 弁当 1255kcal</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>97</v>
       </c>
@@ -11984,9 +12678,8 @@
         <f>UPPER(LEFT(VLOOKUP(A99,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A99,"0000")</f>
         <v>BEN-0097</v>
       </c>
-      <c r="C99" t="str">
-        <f>VLOOKUP(A99,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>Wカルビ焼肉弁当(肉2倍) ライス大盛</v>
+      <c r="C99" t="s">
+        <v>224</v>
       </c>
       <c r="D99" t="str">
         <f>VLOOKUP(VLOOKUP(A99,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -12084,8 +12777,12 @@
         <f>VLOOKUP(A99,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC99" t="str">
+        <f t="shared" si="1"/>
+        <v>Wカルビ焼肉弁当(肉2倍) ライス大盛 弁当 1406kcal</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>98</v>
       </c>
@@ -12093,9 +12790,8 @@
         <f>UPPER(LEFT(VLOOKUP(A100,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A100,"0000")</f>
         <v>BEN-0098</v>
       </c>
-      <c r="C100" t="str">
-        <f>VLOOKUP(A100,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>Wカルビ焼肉弁当(肉2倍) ライス小盛</v>
+      <c r="C100" t="s">
+        <v>225</v>
       </c>
       <c r="D100" t="str">
         <f>VLOOKUP(VLOOKUP(A100,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -12193,8 +12889,12 @@
         <f>VLOOKUP(A100,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC100" t="str">
+        <f t="shared" si="1"/>
+        <v>Wカルビ焼肉弁当(肉2倍) ライス小盛 弁当 1149kcal</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>99</v>
       </c>
@@ -12202,9 +12902,8 @@
         <f>UPPER(LEFT(VLOOKUP(A101,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A101,"0000")</f>
         <v>BEN-0099</v>
       </c>
-      <c r="C101" t="str">
-        <f>VLOOKUP(A101,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>おろしチキン竜田弁当(香味醤油) ライス普通盛</v>
+      <c r="C101" t="s">
+        <v>282</v>
       </c>
       <c r="D101" t="str">
         <f>VLOOKUP(VLOOKUP(A101,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -12302,8 +13001,12 @@
         <f>VLOOKUP(A101,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC101" t="str">
+        <f t="shared" si="1"/>
+        <v>おろしチキン竜田弁当(香味醤油) ライス普通盛 弁当 864kcal</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>100</v>
       </c>
@@ -12311,9 +13014,8 @@
         <f>UPPER(LEFT(VLOOKUP(A102,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A102,"0000")</f>
         <v>BEN-0100</v>
       </c>
-      <c r="C102" t="str">
-        <f>VLOOKUP(A102,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>おろしチキン竜田弁当(香味醤油) ライス大盛</v>
+      <c r="C102" t="s">
+        <v>283</v>
       </c>
       <c r="D102" t="str">
         <f>VLOOKUP(VLOOKUP(A102,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -12411,8 +13113,12 @@
         <f>VLOOKUP(A102,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC102" t="str">
+        <f t="shared" si="1"/>
+        <v>おろしチキン竜田弁当(香味醤油) ライス大盛 弁当 1015kcal</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>101</v>
       </c>
@@ -12420,9 +13126,8 @@
         <f>UPPER(LEFT(VLOOKUP(A103,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A103,"0000")</f>
         <v>BEN-0101</v>
       </c>
-      <c r="C103" t="str">
-        <f>VLOOKUP(A103,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>おろしチキン竜田弁当(香味醤油) ライス小盛</v>
+      <c r="C103" t="s">
+        <v>284</v>
       </c>
       <c r="D103" t="str">
         <f>VLOOKUP(VLOOKUP(A103,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -12520,8 +13225,12 @@
         <f>VLOOKUP(A103,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC103" t="str">
+        <f t="shared" si="1"/>
+        <v>おろしチキン竜田弁当(香味醤油) ライス小盛 弁当 758kcal</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>102</v>
       </c>
@@ -12529,9 +13238,8 @@
         <f>UPPER(LEFT(VLOOKUP(A104,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A104,"0000")</f>
         <v>BEN-0102</v>
       </c>
-      <c r="C104" t="str">
-        <f>VLOOKUP(A104,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>おろしチキン竜田弁当(和風ぽん酢) ライス普通盛</v>
+      <c r="C104" t="s">
+        <v>285</v>
       </c>
       <c r="D104" t="str">
         <f>VLOOKUP(VLOOKUP(A104,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -12629,8 +13337,12 @@
         <f>VLOOKUP(A104,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC104" t="str">
+        <f t="shared" si="1"/>
+        <v>おろしチキン竜田弁当(和風ぽん酢) ライス普通盛 弁当 851kcal</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>103</v>
       </c>
@@ -12638,9 +13350,8 @@
         <f>UPPER(LEFT(VLOOKUP(A105,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A105,"0000")</f>
         <v>BEN-0103</v>
       </c>
-      <c r="C105" t="str">
-        <f>VLOOKUP(A105,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>おろしチキン竜田弁当(和風ぽん酢) ライス大盛</v>
+      <c r="C105" t="s">
+        <v>286</v>
       </c>
       <c r="D105" t="str">
         <f>VLOOKUP(VLOOKUP(A105,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -12738,8 +13449,12 @@
         <f>VLOOKUP(A105,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC105" t="str">
+        <f t="shared" si="1"/>
+        <v>おろしチキン竜田弁当(和風ぽん酢) ライス大盛 弁当 1002kcal</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>104</v>
       </c>
@@ -12747,9 +13462,8 @@
         <f>UPPER(LEFT(VLOOKUP(A106,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A106,"0000")</f>
         <v>BEN-0104</v>
       </c>
-      <c r="C106" t="str">
-        <f>VLOOKUP(A106,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>おろしチキン竜田弁当(和風ぽん酢) ライス小盛</v>
+      <c r="C106" t="s">
+        <v>287</v>
       </c>
       <c r="D106" t="str">
         <f>VLOOKUP(VLOOKUP(A106,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -12847,8 +13561,12 @@
         <f>VLOOKUP(A106,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC106" t="str">
+        <f t="shared" si="1"/>
+        <v>おろしチキン竜田弁当(和風ぽん酢) ライス小盛 弁当 745kcal</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>105</v>
       </c>
@@ -12856,9 +13574,8 @@
         <f>UPPER(LEFT(VLOOKUP(A107,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A107,"0000")</f>
         <v>BEN-0105</v>
       </c>
-      <c r="C107" t="str">
-        <f>VLOOKUP(A107,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>幕の内弁当 ライス普通盛</v>
+      <c r="C107" t="s">
+        <v>288</v>
       </c>
       <c r="D107" t="str">
         <f>VLOOKUP(VLOOKUP(A107,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -12956,8 +13673,12 @@
         <f>VLOOKUP(A107,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC107" t="str">
+        <f t="shared" si="1"/>
+        <v>幕の内弁当 ライス普通盛 弁当 748kcal</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>106</v>
       </c>
@@ -12965,9 +13686,8 @@
         <f>UPPER(LEFT(VLOOKUP(A108,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A108,"0000")</f>
         <v>BEN-0106</v>
       </c>
-      <c r="C108" t="str">
-        <f>VLOOKUP(A108,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>幕の内弁当 ライス大盛</v>
+      <c r="C108" t="s">
+        <v>289</v>
       </c>
       <c r="D108" t="str">
         <f>VLOOKUP(VLOOKUP(A108,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -13065,8 +13785,12 @@
         <f>VLOOKUP(A108,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC108" t="str">
+        <f t="shared" si="1"/>
+        <v>幕の内弁当 ライス大盛 弁当 899kcal</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>107</v>
       </c>
@@ -13074,9 +13798,8 @@
         <f>UPPER(LEFT(VLOOKUP(A109,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A109,"0000")</f>
         <v>BEN-0107</v>
       </c>
-      <c r="C109" t="str">
-        <f>VLOOKUP(A109,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>特撰幕の内弁当 ライス普通盛</v>
+      <c r="C109" t="s">
+        <v>290</v>
       </c>
       <c r="D109" t="str">
         <f>VLOOKUP(VLOOKUP(A109,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -13174,8 +13897,12 @@
         <f>VLOOKUP(A109,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC109" t="str">
+        <f t="shared" si="1"/>
+        <v>特撰幕の内弁当 ライス普通盛 弁当 817kcal</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>108</v>
       </c>
@@ -13183,9 +13910,8 @@
         <f>UPPER(LEFT(VLOOKUP(A110,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A110,"0000")</f>
         <v>BEN-0108</v>
       </c>
-      <c r="C110" t="str">
-        <f>VLOOKUP(A110,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>特撰幕の内弁当 ライス大盛</v>
+      <c r="C110" t="s">
+        <v>291</v>
       </c>
       <c r="D110" t="str">
         <f>VLOOKUP(VLOOKUP(A110,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -13283,8 +14009,12 @@
         <f>VLOOKUP(A110,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC110" t="str">
+        <f t="shared" si="1"/>
+        <v>特撰幕の内弁当 ライス大盛 弁当 968kcal</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>109</v>
       </c>
@@ -13292,9 +14022,8 @@
         <f>UPPER(LEFT(VLOOKUP(A111,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A111,"0000")</f>
         <v>BEN-0109</v>
       </c>
-      <c r="C111" t="str">
-        <f>VLOOKUP(A111,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>華・幕の内弁当 ライス普通盛</v>
+      <c r="C111" t="s">
+        <v>292</v>
       </c>
       <c r="D111" t="str">
         <f>VLOOKUP(VLOOKUP(A111,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -13392,8 +14121,12 @@
         <f>VLOOKUP(A111,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC111" t="str">
+        <f t="shared" si="1"/>
+        <v>華・幕の内弁当 ライス普通盛 弁当 482kcal</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>110</v>
       </c>
@@ -13401,9 +14134,8 @@
         <f>UPPER(LEFT(VLOOKUP(A112,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A112,"0000")</f>
         <v>DON-0110</v>
       </c>
-      <c r="C112" t="str">
-        <f>VLOOKUP(A112,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>カットステーキ重 ライス普通盛</v>
+      <c r="C112" t="s">
+        <v>293</v>
       </c>
       <c r="D112" t="str">
         <f>VLOOKUP(VLOOKUP(A112,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -13501,8 +14233,12 @@
         <f>VLOOKUP(A112,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC112" t="str">
+        <f t="shared" si="1"/>
+        <v>カットステーキ重 ライス普通盛 丼ぶり 652kcal</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>111</v>
       </c>
@@ -13510,9 +14246,8 @@
         <f>UPPER(LEFT(VLOOKUP(A113,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A113,"0000")</f>
         <v>DON-0111</v>
       </c>
-      <c r="C113" t="str">
-        <f>VLOOKUP(A113,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>カットステーキ重 ライス大盛</v>
+      <c r="C113" t="s">
+        <v>294</v>
       </c>
       <c r="D113" t="str">
         <f>VLOOKUP(VLOOKUP(A113,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -13610,8 +14345,12 @@
         <f>VLOOKUP(A113,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC113" t="str">
+        <f t="shared" si="1"/>
+        <v>カットステーキ重 ライス大盛 丼ぶり 803kcal</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>112</v>
       </c>
@@ -13619,9 +14358,8 @@
         <f>UPPER(LEFT(VLOOKUP(A114,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A114,"0000")</f>
         <v>DON-0112</v>
       </c>
-      <c r="C114" t="str">
-        <f>VLOOKUP(A114,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>Wカットステーキ重(肉2倍) ライス普通盛</v>
+      <c r="C114" t="s">
+        <v>295</v>
       </c>
       <c r="D114" t="str">
         <f>VLOOKUP(VLOOKUP(A114,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -13719,8 +14457,12 @@
         <f>VLOOKUP(A114,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC114" t="str">
+        <f t="shared" si="1"/>
+        <v>Wカットステーキ重(肉2倍) ライス普通盛 丼ぶり 884kcal</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>113</v>
       </c>
@@ -13728,9 +14470,8 @@
         <f>UPPER(LEFT(VLOOKUP(A115,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A115,"0000")</f>
         <v>DON-0113</v>
       </c>
-      <c r="C115" t="str">
-        <f>VLOOKUP(A115,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>Wカットステーキ重(肉2倍) ライス大盛</v>
+      <c r="C115" t="s">
+        <v>296</v>
       </c>
       <c r="D115" t="str">
         <f>VLOOKUP(VLOOKUP(A115,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -13828,8 +14569,12 @@
         <f>VLOOKUP(A115,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC115" t="str">
+        <f t="shared" si="1"/>
+        <v>Wカットステーキ重(肉2倍) ライス大盛 丼ぶり 1035kcal</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>114</v>
       </c>
@@ -13837,9 +14582,8 @@
         <f>UPPER(LEFT(VLOOKUP(A116,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A116,"0000")</f>
         <v>DON-0114</v>
       </c>
-      <c r="C116" t="str">
-        <f>VLOOKUP(A116,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>カットステーキコンボ ライス普通盛</v>
+      <c r="C116" t="s">
+        <v>297</v>
       </c>
       <c r="D116" t="str">
         <f>VLOOKUP(VLOOKUP(A116,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -13937,8 +14681,12 @@
         <f>VLOOKUP(A116,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC116" t="str">
+        <f t="shared" si="1"/>
+        <v>カットステーキコンボ ライス普通盛 丼ぶり 1088kcal</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>115</v>
       </c>
@@ -13946,9 +14694,8 @@
         <f>UPPER(LEFT(VLOOKUP(A117,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A117,"0000")</f>
         <v>DON-0115</v>
       </c>
-      <c r="C117" t="str">
-        <f>VLOOKUP(A117,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>カットステーキコンボ ライス大盛</v>
+      <c r="C117" t="s">
+        <v>298</v>
       </c>
       <c r="D117" t="str">
         <f>VLOOKUP(VLOOKUP(A117,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -14046,8 +14793,12 @@
         <f>VLOOKUP(A117,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC117" t="str">
+        <f t="shared" si="1"/>
+        <v>カットステーキコンボ ライス大盛 丼ぶり 1239kcal</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>116</v>
       </c>
@@ -14055,9 +14806,8 @@
         <f>UPPER(LEFT(VLOOKUP(A118,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A118,"0000")</f>
         <v>DON-0116</v>
       </c>
-      <c r="C118" t="str">
-        <f>VLOOKUP(A118,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>親子丼 ライス普通盛</v>
+      <c r="C118" t="s">
+        <v>299</v>
       </c>
       <c r="D118" t="str">
         <f>VLOOKUP(VLOOKUP(A118,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -14155,8 +14905,12 @@
         <f>VLOOKUP(A118,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC118" t="str">
+        <f t="shared" si="1"/>
+        <v>親子丼 ライス普通盛 丼ぶり 672kcal</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>117</v>
       </c>
@@ -14164,9 +14918,8 @@
         <f>UPPER(LEFT(VLOOKUP(A119,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A119,"0000")</f>
         <v>DON-0117</v>
       </c>
-      <c r="C119" t="str">
-        <f>VLOOKUP(A119,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>親子丼 ライス大盛</v>
+      <c r="C119" t="s">
+        <v>300</v>
       </c>
       <c r="D119" t="str">
         <f>VLOOKUP(VLOOKUP(A119,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -14264,8 +15017,12 @@
         <f>VLOOKUP(A119,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC119" t="str">
+        <f t="shared" si="1"/>
+        <v>親子丼 ライス大盛 丼ぶり 823kcal</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>118</v>
       </c>
@@ -14273,9 +15030,8 @@
         <f>UPPER(LEFT(VLOOKUP(A120,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A120,"0000")</f>
         <v>CUR-0118</v>
       </c>
-      <c r="C120" t="str">
-        <f>VLOOKUP(A120,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>ビーフカレー ライス普通盛</v>
+      <c r="C120" t="s">
+        <v>301</v>
       </c>
       <c r="D120" t="str">
         <f>VLOOKUP(VLOOKUP(A120,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -14373,8 +15129,12 @@
         <f>VLOOKUP(A120,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC120" t="str">
+        <f t="shared" si="1"/>
+        <v>ビーフカレー ライス普通盛 カレー 590kcal</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>119</v>
       </c>
@@ -14382,9 +15142,8 @@
         <f>UPPER(LEFT(VLOOKUP(A121,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A121,"0000")</f>
         <v>CUR-0119</v>
       </c>
-      <c r="C121" t="str">
-        <f>VLOOKUP(A121,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>ビーフカレー ライス大盛</v>
+      <c r="C121" t="s">
+        <v>302</v>
       </c>
       <c r="D121" t="str">
         <f>VLOOKUP(VLOOKUP(A121,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -14482,8 +15241,12 @@
         <f>VLOOKUP(A121,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC121" t="str">
+        <f t="shared" si="1"/>
+        <v>ビーフカレー ライス大盛 カレー 741kcal</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>120</v>
       </c>
@@ -14491,9 +15254,8 @@
         <f>UPPER(LEFT(VLOOKUP(A122,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A122,"0000")</f>
         <v>CUR-0120</v>
       </c>
-      <c r="C122" t="str">
-        <f>VLOOKUP(A122,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>から揚カレー ライス普通盛</v>
+      <c r="C122" t="s">
+        <v>303</v>
       </c>
       <c r="D122" t="str">
         <f>VLOOKUP(VLOOKUP(A122,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -14591,8 +15353,12 @@
         <f>VLOOKUP(A122,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC122" t="str">
+        <f t="shared" si="1"/>
+        <v>から揚カレー ライス普通盛 カレー 750kcal</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>121</v>
       </c>
@@ -14600,9 +15366,8 @@
         <f>UPPER(LEFT(VLOOKUP(A123,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A123,"0000")</f>
         <v>CUR-0121</v>
       </c>
-      <c r="C123" t="str">
-        <f>VLOOKUP(A123,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>から揚カレー ライス大盛</v>
+      <c r="C123" t="s">
+        <v>304</v>
       </c>
       <c r="D123" t="str">
         <f>VLOOKUP(VLOOKUP(A123,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -14700,8 +15465,12 @@
         <f>VLOOKUP(A123,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC123" t="str">
+        <f t="shared" si="1"/>
+        <v>から揚カレー ライス大盛 カレー 901kcal</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>122</v>
       </c>
@@ -14709,9 +15478,8 @@
         <f>UPPER(LEFT(VLOOKUP(A124,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A124,"0000")</f>
         <v>CUR-0122</v>
       </c>
-      <c r="C124" t="str">
-        <f>VLOOKUP(A124,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>ロースカツカレー ライス普通盛</v>
+      <c r="C124" t="s">
+        <v>305</v>
       </c>
       <c r="D124" t="str">
         <f>VLOOKUP(VLOOKUP(A124,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -14809,8 +15577,12 @@
         <f>VLOOKUP(A124,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC124" t="str">
+        <f t="shared" si="1"/>
+        <v>ロースカツカレー ライス普通盛 カレー 990kcal</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>123</v>
       </c>
@@ -14818,9 +15590,8 @@
         <f>UPPER(LEFT(VLOOKUP(A125,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A125,"0000")</f>
         <v>CUR-0123</v>
       </c>
-      <c r="C125" t="str">
-        <f>VLOOKUP(A125,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>ロースカツカレー ライス大盛</v>
+      <c r="C125" t="s">
+        <v>306</v>
       </c>
       <c r="D125" t="str">
         <f>VLOOKUP(VLOOKUP(A125,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -14918,8 +15689,12 @@
         <f>VLOOKUP(A125,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC125" t="str">
+        <f t="shared" si="1"/>
+        <v>ロースカツカレー ライス大盛 カレー 1141kcal</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>124</v>
       </c>
@@ -14927,9 +15702,8 @@
         <f>UPPER(LEFT(VLOOKUP(A126,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A126,"0000")</f>
         <v>BEN-0124</v>
       </c>
-      <c r="C126" t="str">
-        <f>VLOOKUP(A126,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>さば塩焼き弁当 ライス普通盛</v>
+      <c r="C126" t="s">
+        <v>241</v>
       </c>
       <c r="D126" t="str">
         <f>VLOOKUP(VLOOKUP(A126,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -15027,8 +15801,12 @@
         <f>VLOOKUP(A126,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC126" t="str">
+        <f t="shared" si="1"/>
+        <v>さば塩焼き弁当 ライス普通盛 弁当 831kcal</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>125</v>
       </c>
@@ -15036,9 +15814,8 @@
         <f>UPPER(LEFT(VLOOKUP(A127,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A127,"0000")</f>
         <v>BEN-0125</v>
       </c>
-      <c r="C127" t="str">
-        <f>VLOOKUP(A127,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>さば塩焼き弁当 ライス大盛</v>
+      <c r="C127" t="s">
+        <v>242</v>
       </c>
       <c r="D127" t="str">
         <f>VLOOKUP(VLOOKUP(A127,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -15136,8 +15913,12 @@
         <f>VLOOKUP(A127,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC127" t="str">
+        <f t="shared" si="1"/>
+        <v>さば塩焼き弁当 ライス大盛 弁当 982kcal</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>126</v>
       </c>
@@ -15145,9 +15926,8 @@
         <f>UPPER(LEFT(VLOOKUP(A128,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A128,"0000")</f>
         <v>BEN-0126</v>
       </c>
-      <c r="C128" t="str">
-        <f>VLOOKUP(A128,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>しゃけ塩焼き弁当 ライス普通盛</v>
+      <c r="C128" t="s">
+        <v>238</v>
       </c>
       <c r="D128" t="str">
         <f>VLOOKUP(VLOOKUP(A128,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -15245,8 +16025,12 @@
         <f>VLOOKUP(A128,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC128" t="str">
+        <f t="shared" si="1"/>
+        <v>しゃけ塩焼き弁当 ライス普通盛 弁当 691kcal</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>127</v>
       </c>
@@ -15254,9 +16038,8 @@
         <f>UPPER(LEFT(VLOOKUP(A129,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A129,"0000")</f>
         <v>BEN-0127</v>
       </c>
-      <c r="C129" t="str">
-        <f>VLOOKUP(A129,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>しゃけ塩焼き弁当 ライス大盛</v>
+      <c r="C129" t="s">
+        <v>239</v>
       </c>
       <c r="D129" t="str">
         <f>VLOOKUP(VLOOKUP(A129,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -15354,8 +16137,12 @@
         <f>VLOOKUP(A129,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC129" t="str">
+        <f t="shared" si="1"/>
+        <v>しゃけ塩焼き弁当 ライス大盛 弁当 842kcal</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>128</v>
       </c>
@@ -15363,9 +16150,8 @@
         <f>UPPER(LEFT(VLOOKUP(A130,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A130,"0000")</f>
         <v>BEN-0128</v>
       </c>
-      <c r="C130" t="str">
-        <f>VLOOKUP(A130,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>ＢＩＧのり弁（コロッケ） ライス普通盛</v>
+      <c r="C130" t="s">
+        <v>307</v>
       </c>
       <c r="D130" t="str">
         <f>VLOOKUP(VLOOKUP(A130,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -15463,8 +16249,12 @@
         <f>VLOOKUP(A130,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC130" t="str">
+        <f t="shared" si="1"/>
+        <v>ＢＩＧのり弁（コロッケ） ライス普通盛 弁当 1122kcal</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>129</v>
       </c>
@@ -15472,9 +16262,8 @@
         <f>UPPER(LEFT(VLOOKUP(A131,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A131,"0000")</f>
         <v>BEN-0129</v>
       </c>
-      <c r="C131" t="str">
-        <f>VLOOKUP(A131,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>ＢＩＧのり弁（コロッケ） ライス大盛</v>
+      <c r="C131" t="s">
+        <v>308</v>
       </c>
       <c r="D131" t="str">
         <f>VLOOKUP(VLOOKUP(A131,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -15572,8 +16361,12 @@
         <f>VLOOKUP(A131,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC131" t="str">
+        <f t="shared" si="1"/>
+        <v>ＢＩＧのり弁（コロッケ） ライス大盛 弁当 1273kcal</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>130</v>
       </c>
@@ -15581,9 +16374,8 @@
         <f>UPPER(LEFT(VLOOKUP(A132,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A132,"0000")</f>
         <v>BEN-0130</v>
       </c>
-      <c r="C132" t="str">
-        <f>VLOOKUP(A132,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>ＢＩＧのり弁（白身フライ） ライス普通盛</v>
+      <c r="C132" t="s">
+        <v>309</v>
       </c>
       <c r="D132" t="str">
         <f>VLOOKUP(VLOOKUP(A132,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -15681,8 +16473,12 @@
         <f>VLOOKUP(A132,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC132" t="str">
+        <f t="shared" ref="AC132:AC195" si="2">C132&amp;" "&amp;D132&amp;" "&amp;F132&amp;"kcal"</f>
+        <v>ＢＩＧのり弁（白身フライ） ライス普通盛 弁当 1080kcal</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>131</v>
       </c>
@@ -15690,9 +16486,8 @@
         <f>UPPER(LEFT(VLOOKUP(A133,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A133,"0000")</f>
         <v>BEN-0131</v>
       </c>
-      <c r="C133" t="str">
-        <f>VLOOKUP(A133,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>ＢＩＧのり弁（白身フライ） ライス大盛</v>
+      <c r="C133" t="s">
+        <v>310</v>
       </c>
       <c r="D133" t="str">
         <f>VLOOKUP(VLOOKUP(A133,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -15790,8 +16585,12 @@
         <f>VLOOKUP(A133,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC133" t="str">
+        <f t="shared" si="2"/>
+        <v>ＢＩＧのり弁（白身フライ） ライス大盛 弁当 1231kcal</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>132</v>
       </c>
@@ -15799,9 +16598,8 @@
         <f>UPPER(LEFT(VLOOKUP(A134,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A134,"0000")</f>
         <v>CHI-0132</v>
       </c>
-      <c r="C134" t="str">
-        <f>VLOOKUP(A134,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>ドラえもんランチ/ドラミちゃんランチ（おにぎり）　　　　　 ライス普通盛</v>
+      <c r="C134" t="s">
+        <v>311</v>
       </c>
       <c r="D134" t="str">
         <f>VLOOKUP(VLOOKUP(A134,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -15899,8 +16697,12 @@
         <f>VLOOKUP(A134,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC134" t="str">
+        <f t="shared" si="2"/>
+        <v>ドラえもんランチ/ドラミちゃんランチ（おにぎり）　　　　　 ライス普通盛 お子様向け 453kcal</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>133</v>
       </c>
@@ -15908,9 +16710,8 @@
         <f>UPPER(LEFT(VLOOKUP(A135,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A135,"0000")</f>
         <v>CHI-0133</v>
       </c>
-      <c r="C135" t="str">
-        <f>VLOOKUP(A135,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v>ドラえもんランチ/ドラミちゃんランチ（カレー）　　　　　 ライス普通盛</v>
+      <c r="C135" t="s">
+        <v>312</v>
       </c>
       <c r="D135" t="str">
         <f>VLOOKUP(VLOOKUP(A135,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -16008,8 +16809,12 @@
         <f>VLOOKUP(A135,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC135" t="str">
+        <f t="shared" si="2"/>
+        <v>ドラえもんランチ/ドラミちゃんランチ（カレー）　　　　　 ライス普通盛 お子様向け 441kcal</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>134</v>
       </c>
@@ -16017,9 +16822,8 @@
         <f>UPPER(LEFT(VLOOKUP(A136,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A136,"0000")</f>
         <v>SID-0134</v>
       </c>
-      <c r="C136" t="str">
-        <f>VLOOKUP(A136,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">プラスべジから揚おかずのみ（4コ入り） </v>
+      <c r="C136" t="s">
+        <v>313</v>
       </c>
       <c r="D136" t="str">
         <f>VLOOKUP(VLOOKUP(A136,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -16117,8 +16921,12 @@
         <f>VLOOKUP(A136,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC136" t="str">
+        <f t="shared" si="2"/>
+        <v>から揚おかずのみ（4コ入り） 小物 387kcal</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>135</v>
       </c>
@@ -16126,9 +16934,8 @@
         <f>UPPER(LEFT(VLOOKUP(A137,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A137,"0000")</f>
         <v>SID-0135</v>
       </c>
-      <c r="C137" t="str">
-        <f>VLOOKUP(A137,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">プラスべジ特から揚おかずのみ（6コ入り） </v>
+      <c r="C137" t="s">
+        <v>314</v>
       </c>
       <c r="D137" t="str">
         <f>VLOOKUP(VLOOKUP(A137,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -16226,8 +17033,12 @@
         <f>VLOOKUP(A137,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC137" t="str">
+        <f t="shared" si="2"/>
+        <v>特から揚おかずのみ（6コ入り） 小物 547kcal</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>136</v>
       </c>
@@ -16235,9 +17046,8 @@
         <f>UPPER(LEFT(VLOOKUP(A138,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A138,"0000")</f>
         <v>SID-0136</v>
       </c>
-      <c r="C138" t="str">
-        <f>VLOOKUP(A138,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">プラスべジカルビ焼肉おかずのみ </v>
+      <c r="C138" t="s">
+        <v>315</v>
       </c>
       <c r="D138" t="str">
         <f>VLOOKUP(VLOOKUP(A138,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -16335,8 +17145,12 @@
         <f>VLOOKUP(A138,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC138" t="str">
+        <f t="shared" si="2"/>
+        <v>カルビ焼肉おかずのみ 小物 506kcal</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>137</v>
       </c>
@@ -16344,9 +17158,8 @@
         <f>UPPER(LEFT(VLOOKUP(A139,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A139,"0000")</f>
         <v>SID-0137</v>
       </c>
-      <c r="C139" t="str">
-        <f>VLOOKUP(A139,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">プラスベジWカルビ焼肉おかずのみ </v>
+      <c r="C139" t="s">
+        <v>316</v>
       </c>
       <c r="D139" t="str">
         <f>VLOOKUP(VLOOKUP(A139,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -16444,8 +17257,12 @@
         <f>VLOOKUP(A139,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC139" t="str">
+        <f t="shared" si="2"/>
+        <v>Wカルビ焼肉おかずのみ 小物 892kcal</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>138</v>
       </c>
@@ -16453,9 +17270,8 @@
         <f>UPPER(LEFT(VLOOKUP(A140,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A140,"0000")</f>
         <v>SID-0138</v>
       </c>
-      <c r="C140" t="str">
-        <f>VLOOKUP(A140,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">プラスべジチキン南蛮おかずのみ </v>
+      <c r="C140" t="s">
+        <v>317</v>
       </c>
       <c r="D140" t="str">
         <f>VLOOKUP(VLOOKUP(A140,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -16553,8 +17369,12 @@
         <f>VLOOKUP(A140,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC140" t="str">
+        <f t="shared" si="2"/>
+        <v>チキン南蛮おかずのみ 小物 489kcal</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>139</v>
       </c>
@@ -16562,9 +17382,8 @@
         <f>UPPER(LEFT(VLOOKUP(A141,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A141,"0000")</f>
         <v>SID-0139</v>
       </c>
-      <c r="C141" t="str">
-        <f>VLOOKUP(A141,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">プラスべジしょうが焼きおかずのみ </v>
+      <c r="C141" t="s">
+        <v>99</v>
       </c>
       <c r="D141" t="str">
         <f>VLOOKUP(VLOOKUP(A141,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -16662,8 +17481,12 @@
         <f>VLOOKUP(A141,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC141" t="str">
+        <f t="shared" si="2"/>
+        <v>しょうが焼きおかずのみ 小物 525kcal</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>140</v>
       </c>
@@ -16671,9 +17494,8 @@
         <f>UPPER(LEFT(VLOOKUP(A142,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A142,"0000")</f>
         <v>SID-0140</v>
       </c>
-      <c r="C142" t="str">
-        <f>VLOOKUP(A142,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">プラスべジおろしチキン竜田おかずのみ（香味醤油） </v>
+      <c r="C142" t="s">
+        <v>318</v>
       </c>
       <c r="D142" t="str">
         <f>VLOOKUP(VLOOKUP(A142,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -16771,8 +17593,12 @@
         <f>VLOOKUP(A142,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC142" t="str">
+        <f t="shared" si="2"/>
+        <v>おろしチキン竜田おかずのみ（香味醤油） 小物 501kcal</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>141</v>
       </c>
@@ -16780,9 +17606,8 @@
         <f>UPPER(LEFT(VLOOKUP(A143,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A143,"0000")</f>
         <v>SID-0141</v>
       </c>
-      <c r="C143" t="str">
-        <f>VLOOKUP(A143,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">プラスべジおろしチキン竜田おかずのみ（和風ぽん酢） </v>
+      <c r="C143" t="s">
+        <v>319</v>
       </c>
       <c r="D143" t="str">
         <f>VLOOKUP(VLOOKUP(A143,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -16880,8 +17705,12 @@
         <f>VLOOKUP(A143,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC143" t="str">
+        <f t="shared" si="2"/>
+        <v>おろしチキン竜田おかずのみ（和風ぽん酢） 小物 488kcal</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>142</v>
       </c>
@@ -16889,9 +17718,8 @@
         <f>UPPER(LEFT(VLOOKUP(A144,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A144,"0000")</f>
         <v>SID-0142</v>
       </c>
-      <c r="C144" t="str">
-        <f>VLOOKUP(A144,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">プラスべジロースとんかつおかずのみ </v>
+      <c r="C144" t="s">
+        <v>320</v>
       </c>
       <c r="D144" t="str">
         <f>VLOOKUP(VLOOKUP(A144,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -16989,8 +17817,12 @@
         <f>VLOOKUP(A144,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC144" t="str">
+        <f t="shared" si="2"/>
+        <v>ロースとんかつおかずのみ 小物 512kcal</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>143</v>
       </c>
@@ -16998,9 +17830,8 @@
         <f>UPPER(LEFT(VLOOKUP(A145,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A145,"0000")</f>
         <v>SID-0143</v>
       </c>
-      <c r="C145" t="str">
-        <f>VLOOKUP(A145,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">プラスべジ4種のこぼれチーズハンバーグステーキおかずのみ </v>
+      <c r="C145" t="s">
+        <v>86</v>
       </c>
       <c r="D145" t="str">
         <f>VLOOKUP(VLOOKUP(A145,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -17098,8 +17929,12 @@
         <f>VLOOKUP(A145,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC145" t="str">
+        <f t="shared" si="2"/>
+        <v>4種のこぼれチーズハンバーグステーキおかずのみ 小物 518kcal</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>144</v>
       </c>
@@ -17107,9 +17942,8 @@
         <f>UPPER(LEFT(VLOOKUP(A146,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A146,"0000")</f>
         <v>SID-0144</v>
       </c>
-      <c r="C146" t="str">
-        <f>VLOOKUP(A146,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">プラスべジデミグラスハンバーグステーキおかずのみ </v>
+      <c r="C146" t="s">
+        <v>87</v>
       </c>
       <c r="D146" t="str">
         <f>VLOOKUP(VLOOKUP(A146,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -17207,8 +18041,12 @@
         <f>VLOOKUP(A146,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC146" t="str">
+        <f t="shared" si="2"/>
+        <v>デミグラスハンバーグステーキおかずのみ 小物 401kcal</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>145</v>
       </c>
@@ -17216,9 +18054,8 @@
         <f>UPPER(LEFT(VLOOKUP(A147,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A147,"0000")</f>
         <v>SID-0145</v>
       </c>
-      <c r="C147" t="str">
-        <f>VLOOKUP(A147,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">プラスべジ和風おろしハンバーグステーキおかずのみ </v>
+      <c r="C147" t="s">
+        <v>88</v>
       </c>
       <c r="D147" t="str">
         <f>VLOOKUP(VLOOKUP(A147,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -17316,8 +18153,12 @@
         <f>VLOOKUP(A147,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC147" t="str">
+        <f t="shared" si="2"/>
+        <v>和風おろしハンバーグステーキおかずのみ 小物 396kcal</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>146</v>
       </c>
@@ -17325,9 +18166,8 @@
         <f>UPPER(LEFT(VLOOKUP(A148,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A148,"0000")</f>
         <v>SID-0146</v>
       </c>
-      <c r="C148" t="str">
-        <f>VLOOKUP(A148,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">プラスべジしゃけ塩焼きおかずのみ </v>
+      <c r="C148" t="s">
+        <v>93</v>
       </c>
       <c r="D148" t="str">
         <f>VLOOKUP(VLOOKUP(A148,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -17425,8 +18265,12 @@
         <f>VLOOKUP(A148,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC148" t="str">
+        <f t="shared" si="2"/>
+        <v>しゃけ塩焼きおかずのみ 小物 368kcal</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>147</v>
       </c>
@@ -17434,9 +18278,8 @@
         <f>UPPER(LEFT(VLOOKUP(A149,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A149,"0000")</f>
         <v>SID-0147</v>
       </c>
-      <c r="C149" t="str">
-        <f>VLOOKUP(A149,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">プラスべジさば塩焼きおかずのみ </v>
+      <c r="C149" t="s">
+        <v>94</v>
       </c>
       <c r="D149" t="str">
         <f>VLOOKUP(VLOOKUP(A149,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -17534,8 +18377,12 @@
         <f>VLOOKUP(A149,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC149" t="str">
+        <f t="shared" si="2"/>
+        <v>さば塩焼きおかずのみ 小物 508kcal</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>148</v>
       </c>
@@ -17543,9 +18390,8 @@
         <f>UPPER(LEFT(VLOOKUP(A150,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A150,"0000")</f>
         <v>SID-0148</v>
       </c>
-      <c r="C150" t="str">
-        <f>VLOOKUP(A150,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">4種のこぼれチーズハンバーグステーキおかずのみ </v>
+      <c r="C150" t="s">
+        <v>86</v>
       </c>
       <c r="D150" t="str">
         <f>VLOOKUP(VLOOKUP(A150,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -17643,8 +18489,12 @@
         <f>VLOOKUP(A150,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC150" t="str">
+        <f t="shared" si="2"/>
+        <v>4種のこぼれチーズハンバーグステーキおかずのみ 小物 503kcal</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>149</v>
       </c>
@@ -17652,9 +18502,8 @@
         <f>UPPER(LEFT(VLOOKUP(A151,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A151,"0000")</f>
         <v>SID-0149</v>
       </c>
-      <c r="C151" t="str">
-        <f>VLOOKUP(A151,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">デミグラスハンバーグステーキおかずのみ </v>
+      <c r="C151" t="s">
+        <v>87</v>
       </c>
       <c r="D151" t="str">
         <f>VLOOKUP(VLOOKUP(A151,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -17752,8 +18601,12 @@
         <f>VLOOKUP(A151,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC151" t="str">
+        <f t="shared" si="2"/>
+        <v>デミグラスハンバーグステーキおかずのみ 小物 386kcal</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>150</v>
       </c>
@@ -17761,9 +18614,8 @@
         <f>UPPER(LEFT(VLOOKUP(A152,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A152,"0000")</f>
         <v>SID-0150</v>
       </c>
-      <c r="C152" t="str">
-        <f>VLOOKUP(A152,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">和風おろしハンバーグステーキおかずのみ </v>
+      <c r="C152" t="s">
+        <v>88</v>
       </c>
       <c r="D152" t="str">
         <f>VLOOKUP(VLOOKUP(A152,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -17861,8 +18713,12 @@
         <f>VLOOKUP(A152,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC152" t="str">
+        <f t="shared" si="2"/>
+        <v>和風おろしハンバーグステーキおかずのみ 小物 381kcal</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>151</v>
       </c>
@@ -17870,9 +18726,8 @@
         <f>UPPER(LEFT(VLOOKUP(A153,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A153,"0000")</f>
         <v>SID-0151</v>
       </c>
-      <c r="C153" t="str">
-        <f>VLOOKUP(A153,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">ロースとんかつ　おかずのみ </v>
+      <c r="C153" t="s">
+        <v>89</v>
       </c>
       <c r="D153" t="str">
         <f>VLOOKUP(VLOOKUP(A153,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -17970,8 +18825,12 @@
         <f>VLOOKUP(A153,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC153" t="str">
+        <f t="shared" si="2"/>
+        <v>ロースとんかつ　おかずのみ 小物 497kcal</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>152</v>
       </c>
@@ -17979,9 +18838,8 @@
         <f>UPPER(LEFT(VLOOKUP(A154,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A154,"0000")</f>
         <v>SID-0152</v>
       </c>
-      <c r="C154" t="str">
-        <f>VLOOKUP(A154,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">ロースかつとじ　おかずのみ </v>
+      <c r="C154" t="s">
+        <v>90</v>
       </c>
       <c r="D154" t="str">
         <f>VLOOKUP(VLOOKUP(A154,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -18079,8 +18937,12 @@
         <f>VLOOKUP(A154,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC154" t="str">
+        <f t="shared" si="2"/>
+        <v>ロースかつとじ　おかずのみ 小物 504kcal</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>153</v>
       </c>
@@ -18088,9 +18950,8 @@
         <f>UPPER(LEFT(VLOOKUP(A155,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A155,"0000")</f>
         <v>SID-0153</v>
       </c>
-      <c r="C155" t="str">
-        <f>VLOOKUP(A155,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">チキン南蛮　おかずのみ </v>
+      <c r="C155" t="s">
+        <v>91</v>
       </c>
       <c r="D155" t="str">
         <f>VLOOKUP(VLOOKUP(A155,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -18188,8 +19049,12 @@
         <f>VLOOKUP(A155,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC155" t="str">
+        <f t="shared" si="2"/>
+        <v>チキン南蛮　おかずのみ 小物 474kcal</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>154</v>
       </c>
@@ -18197,9 +19062,8 @@
         <f>UPPER(LEFT(VLOOKUP(A156,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A156,"0000")</f>
         <v>SID-0154</v>
       </c>
-      <c r="C156" t="str">
-        <f>VLOOKUP(A156,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">肉野菜炒め　おかずのみ </v>
+      <c r="C156" t="s">
+        <v>92</v>
       </c>
       <c r="D156" t="str">
         <f>VLOOKUP(VLOOKUP(A156,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -18297,8 +19161,12 @@
         <f>VLOOKUP(A156,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC156" t="str">
+        <f t="shared" si="2"/>
+        <v>肉野菜炒め　おかずのみ 小物 365kcal</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>155</v>
       </c>
@@ -18306,9 +19174,8 @@
         <f>UPPER(LEFT(VLOOKUP(A157,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A157,"0000")</f>
         <v>SID-0155</v>
       </c>
-      <c r="C157" t="str">
-        <f>VLOOKUP(A157,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">しゃけ塩焼きおかずのみ </v>
+      <c r="C157" t="s">
+        <v>93</v>
       </c>
       <c r="D157" t="str">
         <f>VLOOKUP(VLOOKUP(A157,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -18406,8 +19273,12 @@
         <f>VLOOKUP(A157,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC157" t="str">
+        <f t="shared" si="2"/>
+        <v>しゃけ塩焼きおかずのみ 小物 353kcal</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>156</v>
       </c>
@@ -18415,9 +19286,8 @@
         <f>UPPER(LEFT(VLOOKUP(A158,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A158,"0000")</f>
         <v>SID-0156</v>
       </c>
-      <c r="C158" t="str">
-        <f>VLOOKUP(A158,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">さば塩焼きおかずのみ </v>
+      <c r="C158" t="s">
+        <v>94</v>
       </c>
       <c r="D158" t="str">
         <f>VLOOKUP(VLOOKUP(A158,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -18515,8 +19385,12 @@
         <f>VLOOKUP(A158,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC158" t="str">
+        <f t="shared" si="2"/>
+        <v>さば塩焼きおかずのみ 小物 493kcal</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>157</v>
       </c>
@@ -18524,9 +19398,8 @@
         <f>UPPER(LEFT(VLOOKUP(A159,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A159,"0000")</f>
         <v>SID-0157</v>
       </c>
-      <c r="C159" t="str">
-        <f>VLOOKUP(A159,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">カルビ焼肉　おかずのみ </v>
+      <c r="C159" t="s">
+        <v>95</v>
       </c>
       <c r="D159" t="str">
         <f>VLOOKUP(VLOOKUP(A159,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -18624,8 +19497,12 @@
         <f>VLOOKUP(A159,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC159" t="str">
+        <f t="shared" si="2"/>
+        <v>カルビ焼肉　おかずのみ 小物 491kcal</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>158</v>
       </c>
@@ -18633,9 +19510,8 @@
         <f>UPPER(LEFT(VLOOKUP(A160,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A160,"0000")</f>
         <v>SID-0158</v>
       </c>
-      <c r="C160" t="str">
-        <f>VLOOKUP(A160,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">Wカルビ焼肉　おかずのみ </v>
+      <c r="C160" t="s">
+        <v>96</v>
       </c>
       <c r="D160" t="str">
         <f>VLOOKUP(VLOOKUP(A160,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -18733,8 +19609,12 @@
         <f>VLOOKUP(A160,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC160" t="str">
+        <f t="shared" si="2"/>
+        <v>Wカルビ焼肉　おかずのみ 小物 877kcal</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>159</v>
       </c>
@@ -18742,9 +19622,8 @@
         <f>UPPER(LEFT(VLOOKUP(A161,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A161,"0000")</f>
         <v>SID-0159</v>
       </c>
-      <c r="C161" t="str">
-        <f>VLOOKUP(A161,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">おろしチキン竜田おかずのみ(香味醤油) </v>
+      <c r="C161" t="s">
+        <v>97</v>
       </c>
       <c r="D161" t="str">
         <f>VLOOKUP(VLOOKUP(A161,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -18842,8 +19721,12 @@
         <f>VLOOKUP(A161,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC161" t="str">
+        <f t="shared" si="2"/>
+        <v>おろしチキン竜田おかずのみ(香味醤油) 小物 486kcal</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>160</v>
       </c>
@@ -18851,9 +19734,8 @@
         <f>UPPER(LEFT(VLOOKUP(A162,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A162,"0000")</f>
         <v>SID-0160</v>
       </c>
-      <c r="C162" t="str">
-        <f>VLOOKUP(A162,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">おろしチキン竜田おかずのみ(和風ぽん酢) </v>
+      <c r="C162" t="s">
+        <v>98</v>
       </c>
       <c r="D162" t="str">
         <f>VLOOKUP(VLOOKUP(A162,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -18951,8 +19833,12 @@
         <f>VLOOKUP(A162,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC162" t="str">
+        <f t="shared" si="2"/>
+        <v>おろしチキン竜田おかずのみ(和風ぽん酢) 小物 473kcal</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>161</v>
       </c>
@@ -18960,9 +19846,8 @@
         <f>UPPER(LEFT(VLOOKUP(A163,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A163,"0000")</f>
         <v>SID-0161</v>
       </c>
-      <c r="C163" t="str">
-        <f>VLOOKUP(A163,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">しょうが焼きおかずのみ </v>
+      <c r="C163" t="s">
+        <v>99</v>
       </c>
       <c r="D163" t="str">
         <f>VLOOKUP(VLOOKUP(A163,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -19060,8 +19945,12 @@
         <f>VLOOKUP(A163,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC163" t="str">
+        <f t="shared" si="2"/>
+        <v>しょうが焼きおかずのみ 小物 510kcal</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>162</v>
       </c>
@@ -19069,9 +19958,8 @@
         <f>UPPER(LEFT(VLOOKUP(A164,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A164,"0000")</f>
         <v>SID-0162</v>
       </c>
-      <c r="C164" t="str">
-        <f>VLOOKUP(A164,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">から揚　おかずのみ(4コ入り) </v>
+      <c r="C164" t="s">
+        <v>100</v>
       </c>
       <c r="D164" t="str">
         <f>VLOOKUP(VLOOKUP(A164,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -19169,8 +20057,12 @@
         <f>VLOOKUP(A164,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC164" t="str">
+        <f t="shared" si="2"/>
+        <v>から揚　おかずのみ(4コ入り) 小物 372kcal</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>163</v>
       </c>
@@ -19178,9 +20070,8 @@
         <f>UPPER(LEFT(VLOOKUP(A165,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A165,"0000")</f>
         <v>SID-0163</v>
       </c>
-      <c r="C165" t="str">
-        <f>VLOOKUP(A165,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">特から揚おかずのみ(6コ入り) </v>
+      <c r="C165" t="s">
+        <v>101</v>
       </c>
       <c r="D165" t="str">
         <f>VLOOKUP(VLOOKUP(A165,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -19278,8 +20169,12 @@
         <f>VLOOKUP(A165,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC165" t="str">
+        <f t="shared" si="2"/>
+        <v>特から揚おかずのみ(6コ入り) 小物 532kcal</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>164</v>
       </c>
@@ -19287,9 +20182,8 @@
         <f>UPPER(LEFT(VLOOKUP(A166,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A166,"0000")</f>
         <v>SID-0164</v>
       </c>
-      <c r="C166" t="str">
-        <f>VLOOKUP(A166,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">カレールー </v>
+      <c r="C166" t="s">
+        <v>102</v>
       </c>
       <c r="D166" t="str">
         <f>VLOOKUP(VLOOKUP(A166,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -19387,8 +20281,12 @@
         <f>VLOOKUP(A166,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC166" t="str">
+        <f t="shared" si="2"/>
+        <v>カレールー 小物 208kcal</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>165</v>
       </c>
@@ -19396,9 +20294,8 @@
         <f>UPPER(LEFT(VLOOKUP(A167,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A167,"0000")</f>
         <v>SID-0165</v>
       </c>
-      <c r="C167" t="str">
-        <f>VLOOKUP(A167,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">もち麦ごはん単品（中） </v>
+      <c r="C167" t="s">
+        <v>103</v>
       </c>
       <c r="D167" t="str">
         <f>VLOOKUP(VLOOKUP(A167,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -19496,8 +20393,12 @@
         <f>VLOOKUP(A167,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC167" t="str">
+        <f t="shared" si="2"/>
+        <v>もち麦ごはん単品（中） 小物 390kcal</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>166</v>
       </c>
@@ -19505,9 +20406,8 @@
         <f>UPPER(LEFT(VLOOKUP(A168,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A168,"0000")</f>
         <v>SID-0166</v>
       </c>
-      <c r="C168" t="str">
-        <f>VLOOKUP(A168,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">特製豚汁 </v>
+      <c r="C168" t="s">
+        <v>104</v>
       </c>
       <c r="D168" t="str">
         <f>VLOOKUP(VLOOKUP(A168,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -19605,8 +20505,12 @@
         <f>VLOOKUP(A168,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC168" t="str">
+        <f t="shared" si="2"/>
+        <v>特製豚汁 小物 83kcal</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>167</v>
       </c>
@@ -19614,9 +20518,8 @@
         <f>UPPER(LEFT(VLOOKUP(A169,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A169,"0000")</f>
         <v>SID-0167</v>
       </c>
-      <c r="C169" t="str">
-        <f>VLOOKUP(A169,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">(単品惣菜)豆もやしナムル </v>
+      <c r="C169" t="s">
+        <v>321</v>
       </c>
       <c r="D169" t="str">
         <f>VLOOKUP(VLOOKUP(A169,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -19714,8 +20617,12 @@
         <f>VLOOKUP(A169,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC169" t="str">
+        <f t="shared" si="2"/>
+        <v>惣菜:豆もやしナムル 小物 68kcal</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>168</v>
       </c>
@@ -19723,9 +20630,8 @@
         <f>UPPER(LEFT(VLOOKUP(A170,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A170,"0000")</f>
         <v>SID-0168</v>
       </c>
-      <c r="C170" t="str">
-        <f>VLOOKUP(A170,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">ちくわ天 </v>
+      <c r="C170" t="s">
+        <v>106</v>
       </c>
       <c r="D170" t="str">
         <f>VLOOKUP(VLOOKUP(A170,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -19823,8 +20729,12 @@
         <f>VLOOKUP(A170,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC170" t="str">
+        <f t="shared" si="2"/>
+        <v>ちくわ天 小物 52kcal</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>169</v>
       </c>
@@ -19832,9 +20742,8 @@
         <f>UPPER(LEFT(VLOOKUP(A171,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A171,"0000")</f>
         <v>SID-0169</v>
       </c>
-      <c r="C171" t="str">
-        <f>VLOOKUP(A171,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">ミニうどん（肉） </v>
+      <c r="C171" t="s">
+        <v>107</v>
       </c>
       <c r="D171" t="str">
         <f>VLOOKUP(VLOOKUP(A171,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -19932,8 +20841,12 @@
         <f>VLOOKUP(A171,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC171" t="str">
+        <f t="shared" si="2"/>
+        <v>ミニうどん（肉） 小物 127kcal</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>170</v>
       </c>
@@ -19941,9 +20854,8 @@
         <f>UPPER(LEFT(VLOOKUP(A172,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A172,"0000")</f>
         <v>SID-0170</v>
       </c>
-      <c r="C172" t="str">
-        <f>VLOOKUP(A172,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">ミニうどん（きつね） </v>
+      <c r="C172" t="s">
+        <v>108</v>
       </c>
       <c r="D172" t="str">
         <f>VLOOKUP(VLOOKUP(A172,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -20041,8 +20953,12 @@
         <f>VLOOKUP(A172,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC172" t="str">
+        <f t="shared" si="2"/>
+        <v>ミニうどん（きつね） 小物 123kcal</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>171</v>
       </c>
@@ -20050,9 +20966,8 @@
         <f>UPPER(LEFT(VLOOKUP(A173,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A173,"0000")</f>
         <v>SID-0171</v>
       </c>
-      <c r="C173" t="str">
-        <f>VLOOKUP(A173,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">チキンバスケット(10コ入り) </v>
+      <c r="C173" t="s">
+        <v>109</v>
       </c>
       <c r="D173" t="str">
         <f>VLOOKUP(VLOOKUP(A173,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -20150,8 +21065,12 @@
         <f>VLOOKUP(A173,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC173" t="str">
+        <f t="shared" si="2"/>
+        <v>チキンバスケット(10コ入り) 小物 802kcal</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>172</v>
       </c>
@@ -20159,9 +21078,8 @@
         <f>UPPER(LEFT(VLOOKUP(A174,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A174,"0000")</f>
         <v>SIN-0172</v>
       </c>
-      <c r="C174" t="str">
-        <f>VLOOKUP(A174,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">（単品惣菜）　から揚 </v>
+      <c r="C174" t="s">
+        <v>322</v>
       </c>
       <c r="D174" t="str">
         <f>VLOOKUP(VLOOKUP(A174,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -20259,8 +21177,12 @@
         <f>VLOOKUP(A174,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC174" t="str">
+        <f t="shared" si="2"/>
+        <v>惣菜：から揚 単品 80kcal</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>173</v>
       </c>
@@ -20268,9 +21190,8 @@
         <f>UPPER(LEFT(VLOOKUP(A175,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A175,"0000")</f>
         <v>SIN-0173</v>
       </c>
-      <c r="C175" t="str">
-        <f>VLOOKUP(A175,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">（単品惣菜）　ポテトサラダ </v>
+      <c r="C175" t="s">
+        <v>323</v>
       </c>
       <c r="D175" t="str">
         <f>VLOOKUP(VLOOKUP(A175,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -20368,8 +21289,12 @@
         <f>VLOOKUP(A175,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC175" t="str">
+        <f t="shared" si="2"/>
+        <v>惣菜：ポテトサラダ 単品 65kcal</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>174</v>
       </c>
@@ -20377,9 +21302,8 @@
         <f>UPPER(LEFT(VLOOKUP(A176,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A176,"0000")</f>
         <v>SIN-0174</v>
       </c>
-      <c r="C176" t="str">
-        <f>VLOOKUP(A176,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">（単品惣菜）　コロッケ </v>
+      <c r="C176" t="s">
+        <v>324</v>
       </c>
       <c r="D176" t="str">
         <f>VLOOKUP(VLOOKUP(A176,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -20477,8 +21401,12 @@
         <f>VLOOKUP(A176,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC176" t="str">
+        <f t="shared" si="2"/>
+        <v>惣菜：コロッケ 単品 202kcal</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>175</v>
       </c>
@@ -20486,9 +21414,8 @@
         <f>UPPER(LEFT(VLOOKUP(A177,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A177,"0000")</f>
         <v>SIN-0175</v>
       </c>
-      <c r="C177" t="str">
-        <f>VLOOKUP(A177,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">（単品惣菜）　メンチカツ </v>
+      <c r="C177" t="s">
+        <v>325</v>
       </c>
       <c r="D177" t="str">
         <f>VLOOKUP(VLOOKUP(A177,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -20586,8 +21513,12 @@
         <f>VLOOKUP(A177,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC177" t="str">
+        <f t="shared" si="2"/>
+        <v>惣菜：メンチカツ 単品 177kcal</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>176</v>
       </c>
@@ -20595,9 +21526,8 @@
         <f>UPPER(LEFT(VLOOKUP(A178,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A178,"0000")</f>
         <v>SIN-0176</v>
       </c>
-      <c r="C178" t="str">
-        <f>VLOOKUP(A178,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">（単品惣菜）　小松菜と油揚げの和え物 </v>
+      <c r="C178" t="s">
+        <v>326</v>
       </c>
       <c r="D178" t="str">
         <f>VLOOKUP(VLOOKUP(A178,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -20695,8 +21625,12 @@
         <f>VLOOKUP(A178,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC178" t="str">
+        <f t="shared" si="2"/>
+        <v>惣菜：小松菜と油揚げの和え物 単品 39kcal</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>177</v>
       </c>
@@ -20704,9 +21638,8 @@
         <f>UPPER(LEFT(VLOOKUP(A179,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A179,"0000")</f>
         <v>SIN-0177</v>
       </c>
-      <c r="C179" t="str">
-        <f>VLOOKUP(A179,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">（単品惣菜）　キンピラゴボウ </v>
+      <c r="C179" t="s">
+        <v>327</v>
       </c>
       <c r="D179" t="str">
         <f>VLOOKUP(VLOOKUP(A179,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -20804,8 +21737,12 @@
         <f>VLOOKUP(A179,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC179" t="str">
+        <f t="shared" si="2"/>
+        <v>惣菜：キンピラゴボウ 単品 53kcal</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>178</v>
       </c>
@@ -20813,9 +21750,8 @@
         <f>UPPER(LEFT(VLOOKUP(A180,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A180,"0000")</f>
         <v>SIN-0178</v>
       </c>
-      <c r="C180" t="str">
-        <f>VLOOKUP(A180,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">（単品惣菜）　白身フライ </v>
+      <c r="C180" t="s">
+        <v>328</v>
       </c>
       <c r="D180" t="str">
         <f>VLOOKUP(VLOOKUP(A180,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -20913,8 +21849,12 @@
         <f>VLOOKUP(A180,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC180" t="str">
+        <f t="shared" si="2"/>
+        <v>惣菜：白身フライ 単品 160kcal</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>179</v>
       </c>
@@ -20922,9 +21862,8 @@
         <f>UPPER(LEFT(VLOOKUP(A181,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A181,"0000")</f>
         <v>SIN-0179</v>
       </c>
-      <c r="C181" t="str">
-        <f>VLOOKUP(A181,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">（単品惣菜）エビフライ </v>
+      <c r="C181" t="s">
+        <v>329</v>
       </c>
       <c r="D181" t="str">
         <f>VLOOKUP(VLOOKUP(A181,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -21022,8 +21961,12 @@
         <f>VLOOKUP(A181,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC181" t="str">
+        <f t="shared" si="2"/>
+        <v>惣菜：エビフライ 単品 76kcal</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>180</v>
       </c>
@@ -21031,9 +21974,8 @@
         <f>UPPER(LEFT(VLOOKUP(A182,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A182,"0000")</f>
         <v>SIN-0180</v>
       </c>
-      <c r="C182" t="str">
-        <f>VLOOKUP(A182,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">（単品惣菜）　しゃけ塩焼き </v>
+      <c r="C182" t="s">
+        <v>330</v>
       </c>
       <c r="D182" t="str">
         <f>VLOOKUP(VLOOKUP(A182,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -21131,8 +22073,12 @@
         <f>VLOOKUP(A182,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC182" t="str">
+        <f t="shared" si="2"/>
+        <v>惣菜：しゃけ塩焼き 単品 124kcal</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>181</v>
       </c>
@@ -21140,9 +22086,8 @@
         <f>UPPER(LEFT(VLOOKUP(A183,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A183,"0000")</f>
         <v>SIN-0181</v>
       </c>
-      <c r="C183" t="str">
-        <f>VLOOKUP(A183,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">（単品惣菜）　さばの塩焼 </v>
+      <c r="C183" t="s">
+        <v>331</v>
       </c>
       <c r="D183" t="str">
         <f>VLOOKUP(VLOOKUP(A183,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -21240,8 +22185,12 @@
         <f>VLOOKUP(A183,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC183" t="str">
+        <f t="shared" si="2"/>
+        <v>惣菜：さばの塩焼 単品 248kcal</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>182</v>
       </c>
@@ -21249,9 +22198,8 @@
         <f>UPPER(LEFT(VLOOKUP(A184,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A184,"0000")</f>
         <v>SIN-0182</v>
       </c>
-      <c r="C184" t="str">
-        <f>VLOOKUP(A184,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">手羽から揚（しお味・10本入り） </v>
+      <c r="C184" t="s">
+        <v>120</v>
       </c>
       <c r="D184" t="str">
         <f>VLOOKUP(VLOOKUP(A184,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -21349,8 +22297,12 @@
         <f>VLOOKUP(A184,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC184" t="str">
+        <f t="shared" si="2"/>
+        <v>手羽から揚（しお味・10本入り） 単品 378kcal</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>183</v>
       </c>
@@ -21358,9 +22310,8 @@
         <f>UPPER(LEFT(VLOOKUP(A185,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A185,"0000")</f>
         <v>SIN-0183</v>
       </c>
-      <c r="C185" t="str">
-        <f>VLOOKUP(A185,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">手羽から揚（しお味・5本入り） </v>
+      <c r="C185" t="s">
+        <v>121</v>
       </c>
       <c r="D185" t="str">
         <f>VLOOKUP(VLOOKUP(A185,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -21458,8 +22409,12 @@
         <f>VLOOKUP(A185,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC185" t="str">
+        <f t="shared" si="2"/>
+        <v>手羽から揚（しお味・5本入り） 単品 189kcal</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>184</v>
       </c>
@@ -21467,9 +22422,8 @@
         <f>UPPER(LEFT(VLOOKUP(A186,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A186,"0000")</f>
         <v>SIN-0184</v>
       </c>
-      <c r="C186" t="str">
-        <f>VLOOKUP(A186,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">フライドポテト </v>
+      <c r="C186" t="s">
+        <v>122</v>
       </c>
       <c r="D186" t="str">
         <f>VLOOKUP(VLOOKUP(A186,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -21567,8 +22521,12 @@
         <f>VLOOKUP(A186,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC186" t="str">
+        <f t="shared" si="2"/>
+        <v>フライドポテト 単品 199kcal</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>185</v>
       </c>
@@ -21576,9 +22534,8 @@
         <f>UPPER(LEFT(VLOOKUP(A187,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A187,"0000")</f>
         <v>SIN-0185</v>
       </c>
-      <c r="C187" t="str">
-        <f>VLOOKUP(A187,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">白菜キムチ </v>
+      <c r="C187" t="s">
+        <v>123</v>
       </c>
       <c r="D187" t="str">
         <f>VLOOKUP(VLOOKUP(A187,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -21676,8 +22633,12 @@
         <f>VLOOKUP(A187,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC187" t="str">
+        <f t="shared" si="2"/>
+        <v>白菜キムチ 単品 33kcal</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>186</v>
       </c>
@@ -21685,9 +22646,8 @@
         <f>UPPER(LEFT(VLOOKUP(A188,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A188,"0000")</f>
         <v>SIN-0186</v>
       </c>
-      <c r="C188" t="str">
-        <f>VLOOKUP(A188,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">ライス単品（大） </v>
+      <c r="C188" t="s">
+        <v>124</v>
       </c>
       <c r="D188" t="str">
         <f>VLOOKUP(VLOOKUP(A188,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -21785,8 +22745,12 @@
         <f>VLOOKUP(A188,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC188" t="str">
+        <f t="shared" si="2"/>
+        <v>ライス単品（大） 単品 529kcal</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>187</v>
       </c>
@@ -21794,9 +22758,8 @@
         <f>UPPER(LEFT(VLOOKUP(A189,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A189,"0000")</f>
         <v>SIN-0187</v>
       </c>
-      <c r="C189" t="str">
-        <f>VLOOKUP(A189,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">スパサラダ </v>
+      <c r="C189" t="s">
+        <v>125</v>
       </c>
       <c r="D189" t="str">
         <f>VLOOKUP(VLOOKUP(A189,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -21894,8 +22857,12 @@
         <f>VLOOKUP(A189,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC189" t="str">
+        <f t="shared" si="2"/>
+        <v>スパサラダ 単品 125kcal</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>188</v>
       </c>
@@ -21903,9 +22870,8 @@
         <f>UPPER(LEFT(VLOOKUP(A190,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A190,"0000")</f>
         <v>SIN-0188</v>
       </c>
-      <c r="C190" t="str">
-        <f>VLOOKUP(A190,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">野菜サラダ </v>
+      <c r="C190" t="s">
+        <v>126</v>
       </c>
       <c r="D190" t="str">
         <f>VLOOKUP(VLOOKUP(A190,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -22003,8 +22969,12 @@
         <f>VLOOKUP(A190,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC190" t="str">
+        <f t="shared" si="2"/>
+        <v>野菜サラダ 単品 33kcal</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>189</v>
       </c>
@@ -22012,9 +22982,8 @@
         <f>UPPER(LEFT(VLOOKUP(A191,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A191,"0000")</f>
         <v>SIN-0189</v>
       </c>
-      <c r="C191" t="str">
-        <f>VLOOKUP(A191,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">ライス単品（中） </v>
+      <c r="C191" t="s">
+        <v>127</v>
       </c>
       <c r="D191" t="str">
         <f>VLOOKUP(VLOOKUP(A191,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -22112,8 +23081,12 @@
         <f>VLOOKUP(A191,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC191" t="str">
+        <f t="shared" si="2"/>
+        <v>ライス単品（中） 単品 378kcal</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>190</v>
       </c>
@@ -22121,9 +23094,8 @@
         <f>UPPER(LEFT(VLOOKUP(A192,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A192,"0000")</f>
         <v>SIN-0190</v>
       </c>
-      <c r="C192" t="str">
-        <f>VLOOKUP(A192,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">ライス単品（小） </v>
+      <c r="C192" t="s">
+        <v>128</v>
       </c>
       <c r="D192" t="str">
         <f>VLOOKUP(VLOOKUP(A192,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -22221,8 +23193,12 @@
         <f>VLOOKUP(A192,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC192" t="str">
+        <f t="shared" si="2"/>
+        <v>ライス単品（小） 単品 272kcal</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>191</v>
       </c>
@@ -22230,9 +23206,8 @@
         <f>UPPER(LEFT(VLOOKUP(A193,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A193,"0000")</f>
         <v>SIN-0191</v>
       </c>
-      <c r="C193" t="str">
-        <f>VLOOKUP(A193,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">しじみ汁 </v>
+      <c r="C193" t="s">
+        <v>129</v>
       </c>
       <c r="D193" t="str">
         <f>VLOOKUP(VLOOKUP(A193,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -22330,8 +23305,12 @@
         <f>VLOOKUP(A193,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC193" t="str">
+        <f t="shared" si="2"/>
+        <v>しじみ汁 単品 39kcal</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>192</v>
       </c>
@@ -22339,9 +23318,8 @@
         <f>UPPER(LEFT(VLOOKUP(A194,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A194,"0000")</f>
         <v>SIN-0192</v>
       </c>
-      <c r="C194" t="str">
-        <f>VLOOKUP(A194,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">なめこ汁 </v>
+      <c r="C194" t="s">
+        <v>130</v>
       </c>
       <c r="D194" t="str">
         <f>VLOOKUP(VLOOKUP(A194,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -22439,8 +23417,12 @@
         <f>VLOOKUP(A194,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC194" t="str">
+        <f t="shared" si="2"/>
+        <v>なめこ汁 単品 42kcal</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>193</v>
       </c>
@@ -22448,9 +23430,8 @@
         <f>UPPER(LEFT(VLOOKUP(A195,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A195,"0000")</f>
         <v>SIN-0193</v>
       </c>
-      <c r="C195" t="str">
-        <f>VLOOKUP(A195,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">わかめスープ </v>
+      <c r="C195" t="s">
+        <v>131</v>
       </c>
       <c r="D195" t="str">
         <f>VLOOKUP(VLOOKUP(A195,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -22548,8 +23529,12 @@
         <f>VLOOKUP(A195,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC195" t="str">
+        <f t="shared" si="2"/>
+        <v>わかめスープ 単品 35kcal</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>194</v>
       </c>
@@ -22557,9 +23542,8 @@
         <f>UPPER(LEFT(VLOOKUP(A196,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A196,"0000")</f>
         <v>SIN-0194</v>
       </c>
-      <c r="C196" t="str">
-        <f>VLOOKUP(A196,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">5種の野菜みそ汁 </v>
+      <c r="C196" t="s">
+        <v>132</v>
       </c>
       <c r="D196" t="str">
         <f>VLOOKUP(VLOOKUP(A196,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -22657,8 +23641,12 @@
         <f>VLOOKUP(A196,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC196" t="str">
+        <f t="shared" ref="AC196:AC204" si="3">C196&amp;" "&amp;D196&amp;" "&amp;F196&amp;"kcal"</f>
+        <v>5種の野菜みそ汁 単品 39kcal</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>195</v>
       </c>
@@ -22666,9 +23654,8 @@
         <f>UPPER(LEFT(VLOOKUP(A197,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A197,"0000")</f>
         <v>SIN-0195</v>
       </c>
-      <c r="C197" t="str">
-        <f>VLOOKUP(A197,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">玉子スープ </v>
+      <c r="C197" t="s">
+        <v>133</v>
       </c>
       <c r="D197" t="str">
         <f>VLOOKUP(VLOOKUP(A197,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -22766,8 +23753,12 @@
         <f>VLOOKUP(A197,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC197" t="str">
+        <f t="shared" si="3"/>
+        <v>玉子スープ 単品 31kcal</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>196</v>
       </c>
@@ -22775,9 +23766,8 @@
         <f>UPPER(LEFT(VLOOKUP(A198,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A198,"0000")</f>
         <v>SIN-0196</v>
       </c>
-      <c r="C198" t="str">
-        <f>VLOOKUP(A198,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">豚汁 </v>
+      <c r="C198" t="s">
+        <v>134</v>
       </c>
       <c r="D198" t="str">
         <f>VLOOKUP(VLOOKUP(A198,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -22875,8 +23865,12 @@
         <f>VLOOKUP(A198,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC198" t="str">
+        <f t="shared" si="3"/>
+        <v>豚汁 単品 81kcal</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>197</v>
       </c>
@@ -22884,9 +23878,8 @@
         <f>UPPER(LEFT(VLOOKUP(A199,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A199,"0000")</f>
         <v>BEV-0197</v>
       </c>
-      <c r="C199" t="str">
-        <f>VLOOKUP(A199,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">緑茶500ml </v>
+      <c r="C199" t="s">
+        <v>135</v>
       </c>
       <c r="D199" t="str">
         <f>VLOOKUP(VLOOKUP(A199,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -22984,8 +23977,12 @@
         <f>VLOOKUP(A199,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC199" t="str">
+        <f t="shared" si="3"/>
+        <v>緑茶500ml 飲み物 0kcal</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>198</v>
       </c>
@@ -22993,9 +23990,8 @@
         <f>UPPER(LEFT(VLOOKUP(A200,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A200,"0000")</f>
         <v>BEV-0198</v>
       </c>
-      <c r="C200" t="str">
-        <f>VLOOKUP(A200,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">烏龍茶500ml </v>
+      <c r="C200" t="s">
+        <v>136</v>
       </c>
       <c r="D200" t="str">
         <f>VLOOKUP(VLOOKUP(A200,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -23093,8 +24089,12 @@
         <f>VLOOKUP(A200,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC200" t="str">
+        <f t="shared" si="3"/>
+        <v>烏龍茶500ml 飲み物 0kcal</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>199</v>
       </c>
@@ -23102,9 +24102,8 @@
         <f>UPPER(LEFT(VLOOKUP(A201,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A201,"0000")</f>
         <v>BEV-0199</v>
       </c>
-      <c r="C201" t="str">
-        <f>VLOOKUP(A201,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">ほうじ茶500ml </v>
+      <c r="C201" t="s">
+        <v>137</v>
       </c>
       <c r="D201" t="str">
         <f>VLOOKUP(VLOOKUP(A201,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
@@ -23202,8 +24201,12 @@
         <f>VLOOKUP(A201,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC201" t="str">
+        <f t="shared" si="3"/>
+        <v>ほうじ茶500ml 飲み物 0kcal</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>200</v>
       </c>
@@ -23211,13 +24214,11 @@
         <f>UPPER(LEFT(VLOOKUP(A202,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A202,"0000")</f>
         <v>BEV-0200</v>
       </c>
-      <c r="C202" t="str">
-        <f>VLOOKUP(A202,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">ドレッシング（ごま) </v>
-      </c>
-      <c r="D202" t="str">
-        <f>VLOOKUP(VLOOKUP(A202,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
-        <v>飲み物</v>
+      <c r="C202" t="s">
+        <v>138</v>
+      </c>
+      <c r="D202" t="s">
+        <v>332</v>
       </c>
       <c r="E202" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(A202,org_table[],COLUMN(org_table[size]),FALSE),SizeCodes[],2,FALSE),"-")</f>
@@ -23311,8 +24312,12 @@
         <f>VLOOKUP(A202,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC202" t="str">
+        <f t="shared" si="3"/>
+        <v>ドレッシング（ごま) ドレッシング 116kcal</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>201</v>
       </c>
@@ -23320,13 +24325,11 @@
         <f>UPPER(LEFT(VLOOKUP(A203,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A203,"0000")</f>
         <v>BEV-0201</v>
       </c>
-      <c r="C203" t="str">
-        <f>VLOOKUP(A203,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">ドレッシング（和風） </v>
-      </c>
-      <c r="D203" t="str">
-        <f>VLOOKUP(VLOOKUP(A203,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
-        <v>飲み物</v>
+      <c r="C203" t="s">
+        <v>139</v>
+      </c>
+      <c r="D203" t="s">
+        <v>332</v>
       </c>
       <c r="E203" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(A203,org_table[],COLUMN(org_table[size]),FALSE),SizeCodes[],2,FALSE),"-")</f>
@@ -23420,8 +24423,12 @@
         <f>VLOOKUP(A203,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC203" t="str">
+        <f t="shared" si="3"/>
+        <v>ドレッシング（和風） ドレッシング 108kcal</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>202</v>
       </c>
@@ -23429,13 +24436,11 @@
         <f>UPPER(LEFT(VLOOKUP(A204,org_table[],2,TRUE),3))&amp;"-"&amp;TEXT(A204,"0000")</f>
         <v>BEV-0202</v>
       </c>
-      <c r="C204" t="str">
-        <f>VLOOKUP(A204,org_table[],COLUMN(org_table[表示名]),FALSE)</f>
-        <v xml:space="preserve">ドレッシング（青じそ) </v>
-      </c>
-      <c r="D204" t="str">
-        <f>VLOOKUP(VLOOKUP(A204,org_table[],COLUMN(org_table[category]),FALSE),Categories[],2,FALSE)</f>
-        <v>飲み物</v>
+      <c r="C204" t="s">
+        <v>140</v>
+      </c>
+      <c r="D204" t="s">
+        <v>332</v>
       </c>
       <c r="E204" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(A204,org_table[],COLUMN(org_table[size]),FALSE),SizeCodes[],2,FALSE),"-")</f>
@@ -23528,6 +24533,10 @@
       <c r="AB204">
         <f>VLOOKUP(A204,dummy_data[],COLUMN(dummy_data[Vitamin E]),TRUE)</f>
         <v>1</v>
+      </c>
+      <c r="AC204" t="str">
+        <f t="shared" si="3"/>
+        <v>ドレッシング（青じそ) ドレッシング 25kcal</v>
       </c>
     </row>
   </sheetData>
@@ -23606,7 +24615,7 @@
         <v>142</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>145</v>
@@ -31882,58 +32891,58 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -43879,24 +44888,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -43904,7 +44913,7 @@
         <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
         <v>146</v>
@@ -43918,7 +44927,7 @@
         <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
         <v>147</v>
@@ -43932,7 +44941,7 @@
         <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
         <v>148</v>
@@ -43946,7 +44955,7 @@
         <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -43954,7 +44963,7 @@
         <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -43962,7 +44971,7 @@
         <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -43970,7 +44979,7 @@
         <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -43978,7 +44987,7 @@
         <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
